--- a/List of Marks.xlsx
+++ b/List of Marks.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0681b4fdd7237a0d/특허법인 성암/Address_Change_Mailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F9EC58-B757-4B67-896E-B6410FF90D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{58F9EC58-B757-4B67-896E-B6410FF90D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8766472C-AEDE-4C9B-B058-91127265D47A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58A97DC-AC7F-4C9D-AD24-5F00CA83644C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58A97DC-AC7F-4C9D-AD24-5F00CA83644C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="481">
   <si>
     <t>77839</t>
   </si>
@@ -952,13 +978,625 @@
   </si>
   <si>
     <t>DORCO Blade Package</t>
+  </si>
+  <si>
+    <t>수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현지대리인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSAfrica</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASTELLANOS &amp; Co.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilleke (미얀마)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>To</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castillo y Castillo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guy Jose Bendana-Guerrero &amp; Asociados</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark43@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark44@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark45@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark46@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark47@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark48@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark49@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark50@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark51@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark52@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark53@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark54@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark55@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark56@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark57@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark58@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark59@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark60@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark61@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark62@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark63@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark64@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark65@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark66@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark67@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark68@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark69@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark70@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark71@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark72@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark73@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark74@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark75@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark76@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark77@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark78@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark79@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark80@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark81@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark82@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark83@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark84@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark85@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark86@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark87@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark88@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark89@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark90@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark91@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark92@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark93@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark94@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark95@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark96@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark97@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark98@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark99@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark100@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark101@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark102@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark103@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark104@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark105@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark106@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark107@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark108@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark109@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark110@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark111@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark112@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark113@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark114@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark115@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark116@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark117@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark118@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark119@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark120@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark121@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark122@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark123@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark124@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark125@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark126@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark127@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark128@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark129@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark130@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark131@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark132@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark133@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark134@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark135@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark136@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark137@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark138@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark139@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark140@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark141@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark142@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark143@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark144@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark145@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark146@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark147@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark148@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark149@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark150@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark151@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark152@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark153@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark154@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark155@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark156@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark157@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark158@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark159@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark160@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark161@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark162@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark163@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark164@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark165@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark166@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark167@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark168@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark169@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark170@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark171@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark172@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark173@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark174@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark175@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark176@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark177@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark178@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark179@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark180@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark181@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark182@sungampat.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -977,8 +1615,56 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,8 +1683,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1036,11 +1727,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,8 +1815,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1069,6 +1866,1214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AD</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ASTURGO, MATEU &amp; associats</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Andorra</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>trademarks@asturgomateu.ad</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>AR</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>PALACIO</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Argentina</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>palacio@palacio.com.ar; marcas@palacio.com.ar</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>BD</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ISLAM &amp; CO</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Bangladesh</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>information@islamandcolawoffice.com</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>BM</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Hilborne, Hawkin &amp; Co.</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Bermuda</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BO</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Sorvill</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Bolivia</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>sorvill@sorvill.com</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>BS</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Mosko &amp; Associates (구: Mary C. Katina mosko)</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Bahamas</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Katina Mosko' &lt;kmosko@moskolaw.com&gt;</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CN</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>LIU</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>China</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>yuanmab@liu-shen.com; yuanyuan@liu-shen.com</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>CR</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Iberbrand Intellectual LLC</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Costa Rica</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Foreigntrademark &lt;foreigntrademark@iberbrand.com&gt;</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>DM</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>AC INTELLECTUAL PROPERTY SERVICES, S. A.(구: Asesores del Ca</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Dominica</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>asesoresip@asesoresdelcaribe.com</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>DO</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Castillo y Castillo</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Dominican Republic</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>trademarks@castillo.com.do</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EC</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Bermeo &amp; Bermeo Law Firm</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Ecuador</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>mail@bermeolaw.com</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EC</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Bermeo</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Ecuador</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>mail@bermeolaw.com</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EL</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Eproint (Portal IP)(EL)</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>El Salvador</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>mcarrillo@eproint.com</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FR</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>CASALONGA</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>France</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Claire de DEMANDOLX (Casalonga)' &lt;c.demandolx@casalonga.com&gt;; 'Elsa TROMBITAS (Casalonga)' &lt;e.trombitas@casalonga.com&gt;; 'Karina DIMIDJIAN-LECOMTE (Casalonga)' &lt;k.dimidjian@casalonga.com&gt;; 'Laurent CAVALLIER (Casalonga)' &lt;l.cavallier@casalonga.com&gt;; 'Klervi HENRY (Casalonga)' &lt;k.henry@casalonga.com&gt;; 'Monica FERREIRA (Casalonga)' &lt;m.ferreira@casalonga.com&gt;</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>GT</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Viteri &amp; Viteri</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Guatemala</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>contacto@viteriviteri.com</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>GT</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Viteri</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Guatemala</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>contacto@viteriviteri.com</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>GY</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>MATHYS &amp; SQUIRE LLP (London)</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Guyana</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>HK</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v xml:space="preserve">Wilkinson </v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Hong Kong</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>trademarks@wilgrist.com</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>HN</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Bufete Mejia &amp; Asociado</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Honduras</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v xml:space="preserve">ipadmin1@bufetemejia.com </v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>HN</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Bufete Mejia</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Honduras</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v xml:space="preserve">ipadmin1@bufetemejia.com </v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>HT</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>CABINET SALES</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Haiti</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>trademarks@cabinetsales.com; spaul@cabinetsales.com</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>IN</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>DE PENNING</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>India</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Paramita.Nandy@depenning.com; Ruchi.Singh@depenning.com</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>JE</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>MATHYS &amp; SQUIRE (Manchester)</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Jersey</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;; Sue Wycherley &lt;SWycherley@mathys-squire.com&gt;; Lucy Dayson &lt;LDayson@mathys-squire.com&gt;</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>JP</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>R&amp;C</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Japan</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>'Seiji OTA' &lt;seiji.ota@rc-iplaw.com&gt;; trademark@rc-iplaw.com; 'Sonoko ARAKI' &lt;sonoko.araki@rc-iplaw.com&gt;</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>KN</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Kelsick, Wilkin &amp; Ferdi</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Saint Kitts &amp; Nevis</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>IP Department &lt;ipdesk@kwfonline.com&gt;</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>KY</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>HSM IP Ltd. (구: APPLEBY)</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Cayman Islands</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>kcleary@hsmoffice.com</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>LK</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Nithi Murugesu &amp; Associates</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Sri Lanka</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Trademark M&amp;A Law &lt;tm@nithimurugesu.com&gt;</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>MATHYS &amp; SQUIRE LLP (London)</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Monserrat</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>MT</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Bezzina &amp; Mifsud Patent Bureau</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Malta</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Bezzina &amp; Mifsud Patentbureau &lt;info@bezmif.com&gt;</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>MV</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Hilborne, Hawkin &amp; Co.</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Maldives</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>NI</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Guy Jose Bendana-Guerrero &amp; Asociados</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Nicaragua</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>NP</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>LexOrbis Intellectual Property Practice</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Nepal</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Abhai Pandey | LexOrbis &lt;Abhai@lexorbis.com&gt;</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Morgan &amp; Morgan Attorneys at Law</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Panama</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Emily Escartin &lt;emily.escartin@morimor.com&gt;</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>PE</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>allende &amp; garcia</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Peru</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>jorge@allendegarcia.com.pe</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>PE</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>allende &amp; garcia</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>PU</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>HSM IP Ltd. (구: APPLEBY)</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Puerto Rico</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>kcleary@hsmoffice.com</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>TO</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Hilborne, Hawkin &amp; Co.</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Tonga</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>US</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>GREENBERG</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>the United States</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>SchlossD@gtlaw.com; kimc@gtlaw.com; EDLINR@gtlaw.com; JongIn.Son@gtlaw.com; SchlossD@gtlaw.com</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>UY</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>CIKATO</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Uruguay</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>matias.cikato@cikato.com.uy</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>VE</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Montoya, Kociecki &amp; Asociados(VE)</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Venezuela</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Montoya, Kociecki &amp; Asociados Exterior &lt;exterior@mkmarcas.com&gt;</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>AO</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Angola</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>BW</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Botswana</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Democratic Republic of the Congo (Zaire)</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>CO</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Colombia</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>DJ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Djibouti</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>ET</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Ethiopia</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>GH</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Ghana</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>GM</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Gambia</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Kenya</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>LR</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Liberia</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>MG</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Madagascar</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>MI</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Tilleke (미얀마)</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Myanmar (Burma)</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>MU</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Mauritius</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>MW</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Malawi</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>MZ</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Mozambique</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>NA</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Namibia</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>NG</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Nigeria</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>OA</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>OAPI (African Intellectual Property Organization)</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Sudan</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>SO</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Somalia</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>TZ</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Tanzania (Tanganyika)</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>UG</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Uganda</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>VN</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Vision</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Vietnam</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>ZA</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>South Africa</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>ZM</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Zambia</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>ZW</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Zimbabwe</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>ZZ</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Tanzania (Zanzibar)</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Panama</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AO</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>BW</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CO</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DJ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>DO</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Castillo y Castillo</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ET</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>GH</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>GM</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>LR</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>MG</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>MI</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Tilleke (미얀마)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>MU</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>MW</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>MZ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>NA</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>NG</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>NI</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Guy Jose Bendana-Guerrero &amp; Asociados</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>OA</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>SO</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>TZ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>UG</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>VN</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Vision</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>ZA</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>ZM</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>ZW</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>ZZ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,13 +3393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99120DCD-9E4A-455B-B013-28FD600B1BA9}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -1402,7 +3407,7 @@
     <col min="4" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>278</v>
       </c>
@@ -1424,8 +3429,17 @@
       <c r="G1" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.5">
       <c r="A2" s="1" t="s">
         <v>269</v>
       </c>
@@ -1445,8 +3459,19 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H2" t="str">
+        <f>VLOOKUP($A2,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP($A2,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
@@ -1468,8 +3493,19 @@
       <c r="G3" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H3" t="str">
+        <f>VLOOKUP($A3,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP($A3,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5">
       <c r="A4" s="1" t="s">
         <v>269</v>
       </c>
@@ -1491,8 +3527,19 @@
       <c r="G4" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H4" t="str">
+        <f>VLOOKUP($A4,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP($A4,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5">
       <c r="A5" s="1" t="s">
         <v>269</v>
       </c>
@@ -1514,8 +3561,19 @@
       <c r="G5" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H5" t="str">
+        <f>VLOOKUP($A5,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP($A5,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5">
       <c r="A6" s="1" t="s">
         <v>269</v>
       </c>
@@ -1537,8 +3595,19 @@
       <c r="G6" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H6" t="str">
+        <f>VLOOKUP($A6,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP($A6,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5">
       <c r="A7" s="1" t="s">
         <v>269</v>
       </c>
@@ -1560,8 +3629,19 @@
       <c r="G7" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H7" t="str">
+        <f>VLOOKUP($A7,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP($A7,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5">
       <c r="A8" s="1" t="s">
         <v>266</v>
       </c>
@@ -1583,8 +3663,19 @@
       <c r="G8" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H8" t="str">
+        <f>VLOOKUP($A8,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP($A8,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5">
       <c r="A9" s="1" t="s">
         <v>263</v>
       </c>
@@ -1606,8 +3697,19 @@
       <c r="G9" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H9" t="str">
+        <f>VLOOKUP($A9,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP($A9,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5">
       <c r="A10" s="1" t="s">
         <v>259</v>
       </c>
@@ -1629,8 +3731,19 @@
       <c r="G10" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H10" t="str">
+        <f>VLOOKUP($A10,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" t="str">
+        <f>VLOOKUP($A10,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5">
       <c r="A11" s="1" t="s">
         <v>259</v>
       </c>
@@ -1652,8 +3765,19 @@
       <c r="G11" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H11" t="str">
+        <f>VLOOKUP($A11,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" t="str">
+        <f>VLOOKUP($A11,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5">
       <c r="A12" s="1" t="s">
         <v>259</v>
       </c>
@@ -1675,8 +3799,19 @@
       <c r="G12" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H12" t="str">
+        <f>VLOOKUP($A12,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" t="str">
+        <f>VLOOKUP($A12,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -1696,8 +3831,19 @@
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H13" t="str">
+        <f>VLOOKUP($A13,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" t="str">
+        <f>VLOOKUP($A13,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5">
       <c r="A14" s="1" t="s">
         <v>242</v>
       </c>
@@ -1717,8 +3863,19 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H14" t="str">
+        <f>VLOOKUP($A14,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" t="str">
+        <f>VLOOKUP($A14,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5">
       <c r="A15" s="1" t="s">
         <v>242</v>
       </c>
@@ -1738,8 +3895,19 @@
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H15" t="str">
+        <f>VLOOKUP($A15,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" t="str">
+        <f>VLOOKUP($A15,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5">
       <c r="A16" s="1" t="s">
         <v>242</v>
       </c>
@@ -1759,8 +3927,19 @@
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H16" t="str">
+        <f>VLOOKUP($A16,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J16" t="str">
+        <f>VLOOKUP($A16,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.5">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
@@ -1782,8 +3961,19 @@
       <c r="G17" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H17" t="str">
+        <f>VLOOKUP($A17,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J17" t="str">
+        <f>VLOOKUP($A17,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5">
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
@@ -1805,8 +3995,19 @@
       <c r="G18" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H18" t="str">
+        <f>VLOOKUP($A18,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="J18" t="str">
+        <f>VLOOKUP($A18,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.5">
       <c r="A19" s="1" t="s">
         <v>242</v>
       </c>
@@ -1828,8 +4029,19 @@
       <c r="G19" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H19" t="str">
+        <f>VLOOKUP($A19,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J19" t="str">
+        <f>VLOOKUP($A19,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.5">
       <c r="A20" s="1" t="s">
         <v>242</v>
       </c>
@@ -1849,8 +4061,19 @@
       <c r="G20" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H20" t="str">
+        <f>VLOOKUP($A20,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" t="str">
+        <f>VLOOKUP($A20,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5">
       <c r="A21" s="1" t="s">
         <v>242</v>
       </c>
@@ -1870,8 +4093,19 @@
       <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H21" t="str">
+        <f>VLOOKUP($A21,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" t="str">
+        <f>VLOOKUP($A21,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.5">
       <c r="A22" s="1" t="s">
         <v>242</v>
       </c>
@@ -1891,8 +4125,19 @@
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H22" t="str">
+        <f>VLOOKUP($A22,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="J22" t="str">
+        <f>VLOOKUP($A22,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.5">
       <c r="A23" s="1" t="s">
         <v>225</v>
       </c>
@@ -1914,8 +4159,19 @@
       <c r="G23" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H23" t="str">
+        <f>VLOOKUP($A23,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" t="str">
+        <f>VLOOKUP($A23,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.5">
       <c r="A24" s="1" t="s">
         <v>225</v>
       </c>
@@ -1937,8 +4193,19 @@
       <c r="G24" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H24" t="str">
+        <f>VLOOKUP($A24,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="J24" t="str">
+        <f>VLOOKUP($A24,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.5">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
@@ -1960,8 +4227,19 @@
       <c r="G25" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H25" t="str">
+        <f>VLOOKUP($A25,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" t="str">
+        <f>VLOOKUP($A25,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.5">
       <c r="A26" s="1" t="s">
         <v>225</v>
       </c>
@@ -1983,8 +4261,19 @@
       <c r="G26" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H26" t="str">
+        <f>VLOOKUP($A26,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="J26" t="str">
+        <f>VLOOKUP($A26,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.5">
       <c r="A27" s="1" t="s">
         <v>225</v>
       </c>
@@ -2006,8 +4295,19 @@
       <c r="G27" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H27" t="str">
+        <f>VLOOKUP($A27,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="J27" t="str">
+        <f>VLOOKUP($A27,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5">
       <c r="A28" s="1" t="s">
         <v>225</v>
       </c>
@@ -2029,8 +4329,19 @@
       <c r="G28" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H28" t="str">
+        <f>VLOOKUP($A28,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="J28" t="str">
+        <f>VLOOKUP($A28,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.5">
       <c r="A29" s="1" t="s">
         <v>225</v>
       </c>
@@ -2052,8 +4363,19 @@
       <c r="G29" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H29" t="str">
+        <f>VLOOKUP($A29,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="J29" t="str">
+        <f>VLOOKUP($A29,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.5">
       <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
@@ -2075,8 +4397,19 @@
       <c r="G30" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H30" t="str">
+        <f>VLOOKUP($A30,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="J30" t="str">
+        <f>VLOOKUP($A30,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.5">
       <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
@@ -2098,8 +4431,19 @@
       <c r="G31" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H31" t="str">
+        <f>VLOOKUP($A31,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="J31" t="str">
+        <f>VLOOKUP($A31,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.5">
       <c r="A32" s="1" t="s">
         <v>225</v>
       </c>
@@ -2121,8 +4465,19 @@
       <c r="G32" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H32" t="str">
+        <f>VLOOKUP($A32,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="J32" t="str">
+        <f>VLOOKUP($A32,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="13.5">
       <c r="A33" s="1" t="s">
         <v>225</v>
       </c>
@@ -2144,8 +4499,19 @@
       <c r="G33" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H33" t="str">
+        <f>VLOOKUP($A33,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="J33" t="str">
+        <f>VLOOKUP($A33,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5">
       <c r="A34" s="1" t="s">
         <v>225</v>
       </c>
@@ -2167,8 +4533,19 @@
       <c r="G34" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H34" t="str">
+        <f>VLOOKUP($A34,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" t="str">
+        <f>VLOOKUP($A34,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="13.5">
       <c r="A35" s="1" t="s">
         <v>217</v>
       </c>
@@ -2190,8 +4567,19 @@
       <c r="G35" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H35" t="str">
+        <f>VLOOKUP($A35,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP($A35,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="13.5">
       <c r="A36" s="1" t="s">
         <v>217</v>
       </c>
@@ -2209,8 +4597,19 @@
       <c r="G36" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H36" t="str">
+        <f>VLOOKUP($A36,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="J36" t="str">
+        <f>VLOOKUP($A36,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="13.5">
       <c r="A37" s="1" t="s">
         <v>217</v>
       </c>
@@ -2232,8 +4631,19 @@
       <c r="G37" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H37" t="str">
+        <f>VLOOKUP($A37,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J37" t="str">
+        <f>VLOOKUP($A37,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="13.5">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -2255,8 +4665,19 @@
       <c r="G38" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H38" t="str">
+        <f>VLOOKUP($A38,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP($A38,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="13.5">
       <c r="A39" s="1" t="s">
         <v>205</v>
       </c>
@@ -2278,8 +4699,19 @@
       <c r="G39" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H39" t="str">
+        <f>VLOOKUP($A39,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP($A39,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13.5">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
@@ -2301,8 +4733,19 @@
       <c r="G40" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H40" t="str">
+        <f>VLOOKUP($A40,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP($A40,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.5">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
@@ -2324,8 +4767,19 @@
       <c r="G41" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H41" t="str">
+        <f>VLOOKUP($A41,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP($A41,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="13.5">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
@@ -2347,8 +4801,19 @@
       <c r="G42" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H42" t="str">
+        <f>VLOOKUP($A42,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP($A42,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.5">
       <c r="A43" s="1" t="s">
         <v>205</v>
       </c>
@@ -2370,8 +4835,19 @@
       <c r="G43" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H43" t="str">
+        <f>VLOOKUP($A43,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="str">
+        <f>VLOOKUP($A43,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.5">
       <c r="A44" s="1" t="s">
         <v>205</v>
       </c>
@@ -2393,8 +4869,19 @@
       <c r="G44" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H44" t="str">
+        <f>VLOOKUP($A44,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP($A44,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5">
       <c r="A45" s="1" t="s">
         <v>200</v>
       </c>
@@ -2416,8 +4903,19 @@
       <c r="G45" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H45" t="str">
+        <f>VLOOKUP($A45,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="str">
+        <f>VLOOKUP($A45,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5">
       <c r="A46" s="1" t="s">
         <v>200</v>
       </c>
@@ -2439,8 +4937,19 @@
       <c r="G46" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H46" t="str">
+        <f>VLOOKUP($A46,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP($A46,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.5">
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
@@ -2462,8 +4971,19 @@
       <c r="G47" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H47" t="str">
+        <f>VLOOKUP($A47,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="str">
+        <f>VLOOKUP($A47,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.5">
       <c r="A48" s="1" t="s">
         <v>196</v>
       </c>
@@ -2485,8 +5005,19 @@
       <c r="G48" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H48" t="str">
+        <f>VLOOKUP($A48,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="str">
+        <f>VLOOKUP($A48,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="13.5">
       <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
@@ -2508,8 +5039,19 @@
       <c r="G49" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H49" t="str">
+        <f>VLOOKUP($A49,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP($A49,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="13.5">
       <c r="A50" s="1" t="s">
         <v>190</v>
       </c>
@@ -2531,8 +5073,19 @@
       <c r="G50" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H50" t="str">
+        <f>VLOOKUP($A50,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP($A50,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13.5">
       <c r="A51" s="1" t="s">
         <v>190</v>
       </c>
@@ -2554,8 +5107,19 @@
       <c r="G51" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H51" t="str">
+        <f>VLOOKUP($A51,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP($A51,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13.5">
       <c r="A52" s="1" t="s">
         <v>190</v>
       </c>
@@ -2577,8 +5141,19 @@
       <c r="G52" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H52" t="str">
+        <f>VLOOKUP($A52,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP($A52,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13.5">
       <c r="A53" s="1" t="s">
         <v>181</v>
       </c>
@@ -2600,8 +5175,19 @@
       <c r="G53" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H53" t="str">
+        <f>VLOOKUP($A53,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP($A53,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="13.5">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -2623,8 +5209,19 @@
       <c r="G54" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H54" t="str">
+        <f>VLOOKUP($A54,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP($A54,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13.5">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -2646,8 +5243,19 @@
       <c r="G55" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H55" t="str">
+        <f>VLOOKUP($A55,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP($A55,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="13.5">
       <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
@@ -2669,8 +5277,19 @@
       <c r="G56" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H56" t="str">
+        <f>VLOOKUP($A56,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP($A56,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13.5">
       <c r="A57" s="1" t="s">
         <v>181</v>
       </c>
@@ -2692,8 +5311,19 @@
       <c r="G57" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H57" t="str">
+        <f>VLOOKUP($A57,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP($A57,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="13.5">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -2715,8 +5345,19 @@
       <c r="G58" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H58" t="str">
+        <f>VLOOKUP($A58,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP($A58,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="13.5">
       <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
@@ -2738,8 +5379,19 @@
       <c r="G59" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H59" t="str">
+        <f>VLOOKUP($A59,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP($A59,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="13.5">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -2761,8 +5413,19 @@
       <c r="G60" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H60" t="str">
+        <f>VLOOKUP($A60,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP($A60,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13.5">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -2784,8 +5447,19 @@
       <c r="G61" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H61" t="str">
+        <f>VLOOKUP($A61,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP($A61,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="13.5">
       <c r="A62" s="1" t="s">
         <v>165</v>
       </c>
@@ -2807,8 +5481,19 @@
       <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H62" t="str">
+        <f>VLOOKUP($A62,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP($A62,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="13.5">
       <c r="A63" s="1" t="s">
         <v>165</v>
       </c>
@@ -2830,8 +5515,19 @@
       <c r="G63" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H63" t="str">
+        <f>VLOOKUP($A63,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP($A63,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="13.5">
       <c r="A64" s="1" t="s">
         <v>165</v>
       </c>
@@ -2853,8 +5549,19 @@
       <c r="G64" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H64" t="str">
+        <f>VLOOKUP($A64,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="str">
+        <f>VLOOKUP($A64,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="13.5">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -2874,8 +5581,19 @@
       <c r="G65" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H65" t="str">
+        <f>VLOOKUP($A65,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="J65" t="str">
+        <f>VLOOKUP($A65,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="13.5">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
@@ -2895,8 +5613,19 @@
       <c r="G66" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H66" t="str">
+        <f>VLOOKUP($A66,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="J66" t="str">
+        <f>VLOOKUP($A66,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="13.5">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2916,8 +5645,19 @@
       <c r="G67" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H67" t="str">
+        <f>VLOOKUP($A67,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" t="str">
+        <f>VLOOKUP($A67,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="13.5">
       <c r="A68" s="1" t="s">
         <v>114</v>
       </c>
@@ -2937,8 +5677,19 @@
       <c r="G68" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H68" t="str">
+        <f>VLOOKUP($A68,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" t="str">
+        <f>VLOOKUP($A68,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="13.5">
       <c r="A69" s="1" t="s">
         <v>114</v>
       </c>
@@ -2958,8 +5709,19 @@
       <c r="G69" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H69" t="str">
+        <f>VLOOKUP($A69,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="J69" t="str">
+        <f>VLOOKUP($A69,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="13.5">
       <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
@@ -2979,8 +5741,19 @@
       <c r="G70" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H70" t="str">
+        <f>VLOOKUP($A70,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="J70" t="str">
+        <f>VLOOKUP($A70,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="13.5">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -3002,8 +5775,19 @@
       <c r="G71" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H71" t="str">
+        <f>VLOOKUP($A71,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="J71" t="str">
+        <f>VLOOKUP($A71,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="13.5">
       <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
@@ -3025,8 +5809,19 @@
       <c r="G72" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H72" t="str">
+        <f>VLOOKUP($A72,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP($A72,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="13.5">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -3048,8 +5843,19 @@
       <c r="G73" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H73" t="str">
+        <f>VLOOKUP($A73,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="J73" t="str">
+        <f>VLOOKUP($A73,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="13.5">
       <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
@@ -3071,8 +5877,19 @@
       <c r="G74" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H74" t="str">
+        <f>VLOOKUP($A74,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="J74" t="str">
+        <f>VLOOKUP($A74,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="13.5">
       <c r="A75" s="1" t="s">
         <v>114</v>
       </c>
@@ -3094,8 +5911,19 @@
       <c r="G75" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H75" t="str">
+        <f>VLOOKUP($A75,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="J75" t="str">
+        <f>VLOOKUP($A75,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="13.5">
       <c r="A76" s="1" t="s">
         <v>114</v>
       </c>
@@ -3117,8 +5945,19 @@
       <c r="G76" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H76" t="str">
+        <f>VLOOKUP($A76,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" t="str">
+        <f>VLOOKUP($A76,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="13.5">
       <c r="A77" s="1" t="s">
         <v>114</v>
       </c>
@@ -3140,8 +5979,19 @@
       <c r="G77" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H77" t="str">
+        <f>VLOOKUP($A77,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="J77" t="str">
+        <f>VLOOKUP($A77,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="13.5">
       <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
@@ -3163,8 +6013,19 @@
       <c r="G78" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H78" t="str">
+        <f>VLOOKUP($A78,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="J78" t="str">
+        <f>VLOOKUP($A78,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="13.5">
       <c r="A79" s="1" t="s">
         <v>114</v>
       </c>
@@ -3186,8 +6047,19 @@
       <c r="G79" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H79" t="str">
+        <f>VLOOKUP($A79,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="J79" t="str">
+        <f>VLOOKUP($A79,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="13.5">
       <c r="A80" s="1" t="s">
         <v>114</v>
       </c>
@@ -3209,8 +6081,19 @@
       <c r="G80" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H80" t="str">
+        <f>VLOOKUP($A80,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="J80" t="str">
+        <f>VLOOKUP($A80,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="13.5">
       <c r="A81" s="1" t="s">
         <v>114</v>
       </c>
@@ -3232,8 +6115,19 @@
       <c r="G81" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H81" t="str">
+        <f>VLOOKUP($A81,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="J81" t="str">
+        <f>VLOOKUP($A81,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="13.5">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -3255,8 +6149,19 @@
       <c r="G82" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H82" t="str">
+        <f>VLOOKUP($A82,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J82" t="str">
+        <f>VLOOKUP($A82,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="13.5">
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
@@ -3278,8 +6183,19 @@
       <c r="G83" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H83" t="str">
+        <f>VLOOKUP($A83,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="J83" t="str">
+        <f>VLOOKUP($A83,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="13.5">
       <c r="A84" s="1" t="s">
         <v>114</v>
       </c>
@@ -3301,8 +6217,19 @@
       <c r="G84" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H84" t="str">
+        <f>VLOOKUP($A84,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="J84" t="str">
+        <f>VLOOKUP($A84,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="13.5">
       <c r="A85" s="1" t="s">
         <v>108</v>
       </c>
@@ -3322,8 +6249,19 @@
       <c r="G85" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H85" t="str">
+        <f>VLOOKUP($A85,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J85" t="str">
+        <f>VLOOKUP($A85,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="13.5">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -3345,8 +6283,19 @@
       <c r="G86" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H86" t="str">
+        <f>VLOOKUP($A86,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="J86" t="str">
+        <f>VLOOKUP($A86,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="13.5">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -3368,8 +6317,19 @@
       <c r="G87" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H87" t="str">
+        <f>VLOOKUP($A87,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="J87" t="str">
+        <f>VLOOKUP($A87,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="13.5">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3391,8 +6351,19 @@
       <c r="G88" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H88" t="str">
+        <f>VLOOKUP($A88,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="J88" t="str">
+        <f>VLOOKUP($A88,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="13.5">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -3414,8 +6385,19 @@
       <c r="G89" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H89" t="str">
+        <f>VLOOKUP($A89,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="J89" t="str">
+        <f>VLOOKUP($A89,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="13.5">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -3437,8 +6419,19 @@
       <c r="G90" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H90" t="str">
+        <f>VLOOKUP($A90,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="J90" t="str">
+        <f>VLOOKUP($A90,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="13.5">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -3460,8 +6453,19 @@
       <c r="G91" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H91" t="str">
+        <f>VLOOKUP($A91,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J91" t="str">
+        <f>VLOOKUP($A91,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="13.5">
       <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
@@ -3483,8 +6487,19 @@
       <c r="G92" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H92" t="str">
+        <f>VLOOKUP($A92,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="J92" t="str">
+        <f>VLOOKUP($A92,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="13.5">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -3506,8 +6521,19 @@
       <c r="G93" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H93" t="str">
+        <f>VLOOKUP($A93,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J93" t="str">
+        <f>VLOOKUP($A93,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="13.5">
       <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
@@ -3527,8 +6553,19 @@
       <c r="G94" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H94" t="str">
+        <f>VLOOKUP($A94,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="J94" t="str">
+        <f>VLOOKUP($A94,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="13.5">
       <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
@@ -3550,8 +6587,19 @@
       <c r="G95" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H95" t="str">
+        <f>VLOOKUP($A95,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="J95" t="str">
+        <f>VLOOKUP($A95,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="13.5">
       <c r="A96" s="1" t="s">
         <v>79</v>
       </c>
@@ -3573,8 +6621,19 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H96" t="str">
+        <f>VLOOKUP($A96,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="J96" t="str">
+        <f>VLOOKUP($A96,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="13.5">
       <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
@@ -3596,8 +6655,19 @@
       <c r="G97" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H97" t="str">
+        <f>VLOOKUP($A97,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="J97" t="str">
+        <f>VLOOKUP($A97,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="13.5">
       <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
@@ -3619,8 +6689,19 @@
       <c r="G98" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="H98" t="str">
+        <f>VLOOKUP($A98,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="J98" t="str">
+        <f>VLOOKUP($A98,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="27">
       <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
@@ -3642,8 +6723,19 @@
       <c r="G99" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H99" t="str">
+        <f>VLOOKUP($A99,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="J99" t="str">
+        <f>VLOOKUP($A99,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="13.5">
       <c r="A100" s="1" t="s">
         <v>79</v>
       </c>
@@ -3665,8 +6757,19 @@
       <c r="G100" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H100" t="str">
+        <f>VLOOKUP($A100,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="J100" t="str">
+        <f>VLOOKUP($A100,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="13.5">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
@@ -3688,8 +6791,19 @@
       <c r="G101" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H101" t="str">
+        <f>VLOOKUP($A101,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="J101" t="str">
+        <f>VLOOKUP($A101,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="13.5">
       <c r="A102" s="1" t="s">
         <v>79</v>
       </c>
@@ -3711,8 +6825,19 @@
       <c r="G102" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H102" t="str">
+        <f>VLOOKUP($A102,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="J102" t="str">
+        <f>VLOOKUP($A102,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="13.5">
       <c r="A103" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +6859,19 @@
       <c r="G103" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H103" t="str">
+        <f>VLOOKUP($A103,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="J103" t="str">
+        <f>VLOOKUP($A103,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="13.5">
       <c r="A104" s="1" t="s">
         <v>79</v>
       </c>
@@ -3757,8 +6893,19 @@
       <c r="G104" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H104" t="str">
+        <f>VLOOKUP($A104,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="J104" t="str">
+        <f>VLOOKUP($A104,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="13.5">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
@@ -3780,8 +6927,19 @@
       <c r="G105" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H105" t="str">
+        <f>VLOOKUP($A105,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J105" t="str">
+        <f>VLOOKUP($A105,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="13.5">
       <c r="A106" s="1" t="s">
         <v>73</v>
       </c>
@@ -3803,8 +6961,19 @@
       <c r="G106" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H106" t="str">
+        <f>VLOOKUP($A106,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="J106" t="str">
+        <f>VLOOKUP($A106,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="13.5">
       <c r="A107" s="1" t="s">
         <v>73</v>
       </c>
@@ -3826,8 +6995,19 @@
       <c r="G107" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H107" t="str">
+        <f>VLOOKUP($A107,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="J107" t="str">
+        <f>VLOOKUP($A107,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="13.5">
       <c r="A108" s="1" t="s">
         <v>73</v>
       </c>
@@ -3849,8 +7029,19 @@
       <c r="G108" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H108" t="str">
+        <f>VLOOKUP($A108,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="J108" t="str">
+        <f>VLOOKUP($A108,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="13.5">
       <c r="A109" s="1" t="s">
         <v>66</v>
       </c>
@@ -3872,8 +7063,19 @@
       <c r="G109" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H109" t="str">
+        <f>VLOOKUP($A109,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="J109" t="str">
+        <f>VLOOKUP($A109,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="13.5">
       <c r="A110" s="1" t="s">
         <v>66</v>
       </c>
@@ -3895,8 +7097,19 @@
       <c r="G110" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H110" t="str">
+        <f>VLOOKUP($A110,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="J110" t="str">
+        <f>VLOOKUP($A110,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="13.5">
       <c r="A111" s="1" t="s">
         <v>66</v>
       </c>
@@ -3918,8 +7131,19 @@
       <c r="G111" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H111" t="str">
+        <f>VLOOKUP($A111,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="J111" t="str">
+        <f>VLOOKUP($A111,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="13.5">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +7165,19 @@
       <c r="G112" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H112" t="str">
+        <f>VLOOKUP($A112,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="J112" t="str">
+        <f>VLOOKUP($A112,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="13.5">
       <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
@@ -3964,8 +7199,19 @@
       <c r="G113" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H113" t="str">
+        <f>VLOOKUP($A113,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I113" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="J113" t="str">
+        <f>VLOOKUP($A113,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="13.5">
       <c r="A114" s="1" t="s">
         <v>60</v>
       </c>
@@ -3987,8 +7233,19 @@
       <c r="G114" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H114" t="str">
+        <f>VLOOKUP($A114,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="J114" t="str">
+        <f>VLOOKUP($A114,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="13.5">
       <c r="A115" s="1" t="s">
         <v>60</v>
       </c>
@@ -4010,8 +7267,19 @@
       <c r="G115" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H115" t="str">
+        <f>VLOOKUP($A115,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I115" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="J115" t="str">
+        <f>VLOOKUP($A115,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="13.5">
       <c r="A116" s="1" t="s">
         <v>55</v>
       </c>
@@ -4033,8 +7301,19 @@
       <c r="G116" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H116" t="str">
+        <f>VLOOKUP($A116,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="J116" t="str">
+        <f>VLOOKUP($A116,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="13.5">
       <c r="A117" s="1" t="s">
         <v>55</v>
       </c>
@@ -4056,8 +7335,19 @@
       <c r="G117" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H117" t="str">
+        <f>VLOOKUP($A117,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I117" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="J117" t="str">
+        <f>VLOOKUP($A117,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="13.5">
       <c r="A118" s="1" t="s">
         <v>53</v>
       </c>
@@ -4077,8 +7367,19 @@
       <c r="G118" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H118" t="str">
+        <f>VLOOKUP($A118,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="J118" t="str">
+        <f>VLOOKUP($A118,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="13.5">
       <c r="A119" s="1" t="s">
         <v>47</v>
       </c>
@@ -4098,8 +7399,19 @@
       <c r="G119" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H119" t="str">
+        <f>VLOOKUP($A119,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="J119" t="str">
+        <f>VLOOKUP($A119,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="13.5">
       <c r="A120" s="1" t="s">
         <v>47</v>
       </c>
@@ -4121,8 +7433,19 @@
       <c r="G120" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H120" t="str">
+        <f>VLOOKUP($A120,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="J120" t="str">
+        <f>VLOOKUP($A120,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="13.5">
       <c r="A121" s="1" t="s">
         <v>47</v>
       </c>
@@ -4144,8 +7467,19 @@
       <c r="G121" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H121" t="str">
+        <f>VLOOKUP($A121,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I121" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="J121" t="str">
+        <f>VLOOKUP($A121,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="13.5">
       <c r="A122" s="1" t="s">
         <v>36</v>
       </c>
@@ -4167,8 +7501,19 @@
       <c r="G122" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H122" t="str">
+        <f>VLOOKUP($A122,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="J122" t="str">
+        <f>VLOOKUP($A122,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="13.5">
       <c r="A123" s="1" t="s">
         <v>36</v>
       </c>
@@ -4190,8 +7535,19 @@
       <c r="G123" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H123" t="str">
+        <f>VLOOKUP($A123,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I123" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J123" t="str">
+        <f>VLOOKUP($A123,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="13.5">
       <c r="A124" s="1" t="s">
         <v>36</v>
       </c>
@@ -4213,8 +7569,19 @@
       <c r="G124" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H124" t="str">
+        <f>VLOOKUP($A124,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I124" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="J124" t="str">
+        <f>VLOOKUP($A124,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="13.5">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -4236,8 +7603,19 @@
       <c r="G125" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H125" t="str">
+        <f>VLOOKUP($A125,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="J125" t="str">
+        <f>VLOOKUP($A125,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="13.5">
       <c r="A126" s="1" t="s">
         <v>36</v>
       </c>
@@ -4259,8 +7637,19 @@
       <c r="G126" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H126" t="str">
+        <f>VLOOKUP($A126,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="J126" t="str">
+        <f>VLOOKUP($A126,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="13.5">
       <c r="A127" s="1" t="s">
         <v>30</v>
       </c>
@@ -4282,8 +7671,19 @@
       <c r="G127" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H127" t="str">
+        <f>VLOOKUP($A127,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="J127" t="str">
+        <f>VLOOKUP($A127,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="13.5">
       <c r="A128" s="1" t="s">
         <v>30</v>
       </c>
@@ -4303,8 +7703,19 @@
       <c r="G128" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H128" t="str">
+        <f>VLOOKUP($A128,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I128" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="J128" t="str">
+        <f>VLOOKUP($A128,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="13.5">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -4326,8 +7737,19 @@
       <c r="G129" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H129" t="str">
+        <f>VLOOKUP($A129,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I129" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="J129" t="str">
+        <f>VLOOKUP($A129,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="13.5">
       <c r="A130" s="1" t="s">
         <v>15</v>
       </c>
@@ -4349,8 +7771,19 @@
       <c r="G130" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H130" t="str">
+        <f>VLOOKUP($A130,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="J130" t="str">
+        <f>VLOOKUP($A130,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="13.5">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -4372,8 +7805,19 @@
       <c r="G131" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H131" t="str">
+        <f>VLOOKUP($A131,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J131" t="str">
+        <f>VLOOKUP($A131,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Zanzibar)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="13.5">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -4395,8 +7839,19 @@
       <c r="G132" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H132" t="str">
+        <f>VLOOKUP($A132,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="J132" t="str">
+        <f>VLOOKUP($A132,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Zanzibar)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="13.5">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -4418,8 +7873,19 @@
       <c r="G133" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H133" t="str">
+        <f>VLOOKUP($A133,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="J133" t="str">
+        <f>VLOOKUP($A133,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Zanzibar)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="13.5">
       <c r="A134" s="1" t="s">
         <v>15</v>
       </c>
@@ -4441,8 +7907,19 @@
       <c r="G134" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H134" t="str">
+        <f>VLOOKUP($A134,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I134" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J134" t="str">
+        <f>VLOOKUP($A134,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="13.5">
       <c r="A135" s="1" t="s">
         <v>15</v>
       </c>
@@ -4464,8 +7941,19 @@
       <c r="G135" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H135" t="str">
+        <f>VLOOKUP($A135,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I135" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="J135" t="str">
+        <f>VLOOKUP($A135,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="13.5">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -4487,8 +7975,19 @@
       <c r="G136" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H136" t="str">
+        <f>VLOOKUP($A136,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="J136" t="str">
+        <f>VLOOKUP($A136,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="13.5">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
@@ -4510,8 +8009,19 @@
       <c r="G137" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H137" t="str">
+        <f>VLOOKUP($A137,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="J137" t="str">
+        <f>VLOOKUP($A137,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="13.5">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +8043,19 @@
       <c r="G138" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H138" t="str">
+        <f>VLOOKUP($A138,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="J138" t="str">
+        <f>VLOOKUP($A138,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="13.5">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -4556,8 +8077,19 @@
       <c r="G139" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H139" t="str">
+        <f>VLOOKUP($A139,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="J139" t="str">
+        <f>VLOOKUP($A139,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="13.5">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -4579,8 +8111,19 @@
       <c r="G140" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H140" t="str">
+        <f>VLOOKUP($A140,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="J140" t="str">
+        <f>VLOOKUP($A140,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="13.5">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -4601,6 +8144,560 @@
       </c>
       <c r="G141" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="H141" t="str">
+        <f>VLOOKUP($A141,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="J141" t="str">
+        <f>VLOOKUP($A141,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED152F1-1B29-4C80-AB4C-8FEA2A933923}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="23.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="27">
+      <c r="A1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="15" t="str" cm="1">
+        <f t="array" ref="C2">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A2) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B2), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A3" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="15" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A3) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B3), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A4" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="15" t="str" cm="1">
+        <f t="array" ref="C4">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A4) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B4), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1" ht="40.5">
+      <c r="A5" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="15" t="str" cm="1">
+        <f t="array" ref="C5">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A5) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B5), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A6" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="15" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A6) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B6), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="str" cm="1">
+        <f t="array" ref="E6">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A6) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B6), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="22.5">
+      <c r="A7" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="15" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A7) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B7), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="str" cm="1">
+        <f t="array" ref="E7">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A7) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B7), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A8" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="15" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A8) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B8), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="str" cm="1">
+        <f t="array" ref="E8">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A8) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B8), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A9" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="15" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A9) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B9), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="str" cm="1">
+        <f t="array" ref="E9">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A9) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B9), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A10" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="15" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A10) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B10), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="str" cm="1">
+        <f t="array" ref="E10">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A10) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B10), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A11" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="15" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A11) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B11), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="str" cm="1">
+        <f t="array" ref="E11">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A11) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B11), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A12" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="15" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A12) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B12), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="str" cm="1">
+        <f t="array" ref="E12">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A12) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B12), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A13" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="15" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A13) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B13), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="str" cm="1">
+        <f t="array" ref="E13">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A13) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B13), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="27">
+      <c r="A14" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="15" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A14) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B14), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="str" cm="1">
+        <f t="array" ref="E14">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A14) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B14), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="15" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A15) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B15), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="str" cm="1">
+        <f t="array" ref="E15">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A15) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B15), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A16" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="15" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A16) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B16), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="str" cm="1">
+        <f t="array" ref="E16">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A16) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B16), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A17" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="15" t="str" cm="1">
+        <f t="array" ref="C17">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A17) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B17), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="str" cm="1">
+        <f t="array" ref="E17">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A17) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B17), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A18" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="15" t="str" cm="1">
+        <f t="array" ref="C18">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A18) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B18), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="str" cm="1">
+        <f t="array" ref="E18">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A18) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B18), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A19" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="15" t="str" cm="1">
+        <f t="array" ref="C19">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A19) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B19), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="str" cm="1">
+        <f t="array" ref="E19">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A19) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B19), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="13" customFormat="1" ht="45">
+      <c r="A20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="15" t="str" cm="1">
+        <f t="array" ref="C20">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A20) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B20), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="str" cm="1">
+        <f t="array" ref="E20">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A20) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B20), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A21" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="15" t="str" cm="1">
+        <f t="array" ref="C21">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A21) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B21), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="str" cm="1">
+        <f t="array" ref="E21">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A21) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B21), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="13" customFormat="1" ht="22.5">
+      <c r="A22" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="15" t="str" cm="1">
+        <f t="array" ref="C22">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A22) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B22), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="str" cm="1">
+        <f t="array" ref="E22">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A22) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B22), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A23" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="15" t="str" cm="1">
+        <f t="array" ref="C23">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A23) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B23), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="str" cm="1">
+        <f t="array" ref="E23">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A23) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B23), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A24" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="15" t="str" cm="1">
+        <f t="array" ref="C24">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A24) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B24), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="str" cm="1">
+        <f t="array" ref="E24">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A24) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B24), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A25" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="15" t="str" cm="1">
+        <f t="array" ref="C25">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A25) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B25), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="str" cm="1">
+        <f t="array" ref="E25">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A25) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B25), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A26" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="15" t="str" cm="1">
+        <f t="array" ref="C26">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A26) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B26), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="str" cm="1">
+        <f t="array" ref="E26">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A26) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B26), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A27" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="15" t="str" cm="1">
+        <f t="array" ref="C27">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A27) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B27), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="str" cm="1">
+        <f t="array" ref="E27">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A27) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B27), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="15" t="str" cm="1">
+        <f t="array" ref="C28">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A28) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B28), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="str" cm="1">
+        <f t="array" ref="E28">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A28) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B28), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A29" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="15" t="str" cm="1">
+        <f t="array" ref="C29">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A29) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B29), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="str" cm="1">
+        <f t="array" ref="E29">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A29) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B29), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A30" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="15" t="str" cm="1">
+        <f t="array" ref="C30">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A30) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B30), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="str" cm="1">
+        <f t="array" ref="E30">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A30) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B30), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="13" customFormat="1" ht="13.5">
+      <c r="A31" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="15" t="str" cm="1">
+        <f t="array" ref="C31">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A31) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B31), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="str" cm="1">
+        <f t="array" ref="E31">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A31) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B31), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Tanzania (Zanzibar)</v>
       </c>
     </row>
   </sheetData>

--- a/List of Marks.xlsx
+++ b/List of Marks.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0681b4fdd7237a0d/특허법인 성암/Address_Change_Mailer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0681b4fdd7237a0d/특허법인 성암/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F9EC58-B757-4B67-896E-B6410FF90D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDE466A-D364-4476-B18A-DB9E3DB91A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58A97DC-AC7F-4C9D-AD24-5F00CA83644C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="481">
   <si>
     <t>77839</t>
   </si>
@@ -952,13 +978,625 @@
   </si>
   <si>
     <t>DORCO Blade Package</t>
+  </si>
+  <si>
+    <t>수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현지대리인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSAfrica</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASTELLANOS &amp; Co.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilleke (미얀마)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>To</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castillo y Castillo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guy Jose Bendana-Guerrero &amp; Asociados</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark43@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark44@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark45@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark46@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark47@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark48@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark49@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark50@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark51@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark52@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark53@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark54@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark55@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark56@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark57@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark58@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark59@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark60@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark61@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark62@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark63@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark64@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark65@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark66@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark67@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark68@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark69@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark70@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark71@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark72@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark73@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark74@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark75@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark76@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark77@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark78@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark79@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark80@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark81@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark82@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark83@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark84@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark85@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark86@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark87@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark88@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark89@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark90@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark91@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark92@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark93@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark94@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark95@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark96@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark97@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark98@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark99@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark100@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark101@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark102@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark103@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark104@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark105@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark106@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark107@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark108@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark109@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark110@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark111@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark112@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark113@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark114@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark115@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark116@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark117@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark118@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark119@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark120@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark121@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark122@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark123@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark124@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark125@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark126@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark127@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark128@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark129@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark130@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark131@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark132@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark133@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark134@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark135@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark136@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark137@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark138@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark139@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark140@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark141@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark142@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark143@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark144@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark145@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark146@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark147@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark148@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark149@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark150@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark151@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark152@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark153@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark154@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark155@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark156@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark157@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark158@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark159@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark160@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark161@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark162@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark163@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark164@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark165@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark166@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark167@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark168@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark169@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark170@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark171@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark172@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark173@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark174@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark175@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark176@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark177@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark178@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark179@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark180@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark181@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark182@sungampat.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -977,8 +1615,56 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,8 +1683,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1036,11 +1727,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,8 +1815,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1069,6 +1866,1214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AD</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ASTURGO, MATEU &amp; associats</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Andorra</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>trademarks@asturgomateu.ad</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>AR</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>PALACIO</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Argentina</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>palacio@palacio.com.ar; marcas@palacio.com.ar</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>BD</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ISLAM &amp; CO</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Bangladesh</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>information@islamandcolawoffice.com</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>BM</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Hilborne, Hawkin &amp; Co.</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Bermuda</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BO</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Sorvill</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Bolivia</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>sorvill@sorvill.com</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>BS</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Mosko &amp; Associates (구: Mary C. Katina mosko)</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Bahamas</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Katina Mosko' &lt;kmosko@moskolaw.com&gt;</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CN</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>LIU</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>China</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>yuanmab@liu-shen.com; yuanyuan@liu-shen.com</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>CR</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Iberbrand Intellectual LLC</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Costa Rica</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Foreigntrademark &lt;foreigntrademark@iberbrand.com&gt;</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>DM</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>AC INTELLECTUAL PROPERTY SERVICES, S. A.(구: Asesores del Ca</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Dominica</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>asesoresip@asesoresdelcaribe.com</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>DO</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Castillo y Castillo</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Dominican Republic</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>trademarks@castillo.com.do</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EC</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Bermeo &amp; Bermeo Law Firm</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Ecuador</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>mail@bermeolaw.com</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EC</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Bermeo</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Ecuador</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>mail@bermeolaw.com</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EL</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Eproint (Portal IP)(EL)</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>El Salvador</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>mcarrillo@eproint.com</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FR</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>CASALONGA</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>France</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Claire de DEMANDOLX (Casalonga)' &lt;c.demandolx@casalonga.com&gt;; 'Elsa TROMBITAS (Casalonga)' &lt;e.trombitas@casalonga.com&gt;; 'Karina DIMIDJIAN-LECOMTE (Casalonga)' &lt;k.dimidjian@casalonga.com&gt;; 'Laurent CAVALLIER (Casalonga)' &lt;l.cavallier@casalonga.com&gt;; 'Klervi HENRY (Casalonga)' &lt;k.henry@casalonga.com&gt;; 'Monica FERREIRA (Casalonga)' &lt;m.ferreira@casalonga.com&gt;</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>GT</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Viteri &amp; Viteri</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Guatemala</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>contacto@viteriviteri.com</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>GT</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Viteri</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Guatemala</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>contacto@viteriviteri.com</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>GY</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>MATHYS &amp; SQUIRE LLP (London)</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Guyana</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>HK</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v xml:space="preserve">Wilkinson </v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Hong Kong</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>trademarks@wilgrist.com</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>HN</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Bufete Mejia &amp; Asociado</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Honduras</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v xml:space="preserve">ipadmin1@bufetemejia.com </v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>HN</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Bufete Mejia</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Honduras</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v xml:space="preserve">ipadmin1@bufetemejia.com </v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>HT</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>CABINET SALES</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Haiti</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>trademarks@cabinetsales.com; spaul@cabinetsales.com</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>IN</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>DE PENNING</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>India</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Paramita.Nandy@depenning.com; Ruchi.Singh@depenning.com</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>JE</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>MATHYS &amp; SQUIRE (Manchester)</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Jersey</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;; Sue Wycherley &lt;SWycherley@mathys-squire.com&gt;; Lucy Dayson &lt;LDayson@mathys-squire.com&gt;</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>JP</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>R&amp;C</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Japan</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>'Seiji OTA' &lt;seiji.ota@rc-iplaw.com&gt;; trademark@rc-iplaw.com; 'Sonoko ARAKI' &lt;sonoko.araki@rc-iplaw.com&gt;</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>KN</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Kelsick, Wilkin &amp; Ferdi</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Saint Kitts &amp; Nevis</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>IP Department &lt;ipdesk@kwfonline.com&gt;</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>KY</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>HSM IP Ltd. (구: APPLEBY)</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Cayman Islands</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>kcleary@hsmoffice.com</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>LK</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Nithi Murugesu &amp; Associates</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Sri Lanka</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Trademark M&amp;A Law &lt;tm@nithimurugesu.com&gt;</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>MATHYS &amp; SQUIRE LLP (London)</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Monserrat</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>MT</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Bezzina &amp; Mifsud Patent Bureau</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Malta</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Bezzina &amp; Mifsud Patentbureau &lt;info@bezmif.com&gt;</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>MV</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Hilborne, Hawkin &amp; Co.</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Maldives</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>NI</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Guy Jose Bendana-Guerrero &amp; Asociados</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Nicaragua</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>NP</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>LexOrbis Intellectual Property Practice</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Nepal</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Abhai Pandey | LexOrbis &lt;Abhai@lexorbis.com&gt;</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Morgan &amp; Morgan Attorneys at Law</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Panama</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Emily Escartin &lt;emily.escartin@morimor.com&gt;</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>PE</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>allende &amp; garcia</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Peru</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>jorge@allendegarcia.com.pe</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>PE</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>allende &amp; garcia</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>PU</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>HSM IP Ltd. (구: APPLEBY)</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Puerto Rico</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>kcleary@hsmoffice.com</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>TO</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Hilborne, Hawkin &amp; Co.</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Tonga</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>US</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>GREENBERG</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>the United States</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>SchlossD@gtlaw.com; kimc@gtlaw.com; EDLINR@gtlaw.com; JongIn.Son@gtlaw.com; SchlossD@gtlaw.com</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>UY</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>CIKATO</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Uruguay</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>matias.cikato@cikato.com.uy</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>VE</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Montoya, Kociecki &amp; Asociados(VE)</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Venezuela</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Montoya, Kociecki &amp; Asociados Exterior &lt;exterior@mkmarcas.com&gt;</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>AO</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Angola</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>BW</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Botswana</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Democratic Republic of the Congo (Zaire)</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>CO</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Colombia</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>DJ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Djibouti</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>ET</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Ethiopia</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>GH</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Ghana</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>GM</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Gambia</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Kenya</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>LR</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Liberia</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>MG</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Madagascar</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>MI</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Tilleke (미얀마)</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Myanmar (Burma)</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>MU</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Mauritius</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>MW</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Malawi</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>MZ</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Mozambique</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>NA</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Namibia</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>NG</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Nigeria</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>OA</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>OAPI (African Intellectual Property Organization)</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Sudan</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>SO</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Somalia</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>TZ</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Tanzania (Tanganyika)</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>UG</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Uganda</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>VN</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Vision</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Vietnam</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>ZA</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>South Africa</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>ZM</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Zambia</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>ZW</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Zimbabwe</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>info@ensafrica.com; rforster@ensafrica.com</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>ZZ</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>VON</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Tanzania (Zanzibar)</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Panama</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AO</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>BW</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CO</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DJ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>DO</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Castillo y Castillo</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ET</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>GH</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>GM</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>KE</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>LR</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>MG</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>MI</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Tilleke (미얀마)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>MU</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>MW</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>MZ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>NA</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>NG</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>NI</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Guy Jose Bendana-Guerrero &amp; Asociados</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>OA</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>CASTELLANOS &amp; Co.</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>SO</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>TZ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>UG</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>VN</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Vision</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>ZA</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>ZM</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>ZW</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>ENSAfrica</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>ZZ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>VON</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,13 +3393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99120DCD-9E4A-455B-B013-28FD600B1BA9}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -1402,7 +3407,7 @@
     <col min="4" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>278</v>
       </c>
@@ -1424,8 +3429,17 @@
       <c r="G1" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.5">
       <c r="A2" s="1" t="s">
         <v>269</v>
       </c>
@@ -1445,8 +3459,19 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H2" t="str">
+        <f>VLOOKUP($A2,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP($A2,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
@@ -1468,8 +3493,19 @@
       <c r="G3" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H3" t="str">
+        <f>VLOOKUP($A3,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP($A3,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5">
       <c r="A4" s="1" t="s">
         <v>269</v>
       </c>
@@ -1491,8 +3527,19 @@
       <c r="G4" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H4" t="str">
+        <f>VLOOKUP($A4,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP($A4,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5">
       <c r="A5" s="1" t="s">
         <v>269</v>
       </c>
@@ -1514,8 +3561,19 @@
       <c r="G5" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H5" t="str">
+        <f>VLOOKUP($A5,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP($A5,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5">
       <c r="A6" s="1" t="s">
         <v>269</v>
       </c>
@@ -1537,8 +3595,19 @@
       <c r="G6" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H6" t="str">
+        <f>VLOOKUP($A6,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP($A6,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5">
       <c r="A7" s="1" t="s">
         <v>269</v>
       </c>
@@ -1560,8 +3629,19 @@
       <c r="G7" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H7" t="str">
+        <f>VLOOKUP($A7,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP($A7,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5">
       <c r="A8" s="1" t="s">
         <v>266</v>
       </c>
@@ -1583,8 +3663,19 @@
       <c r="G8" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H8" t="str">
+        <f>VLOOKUP($A8,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP($A8,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5">
       <c r="A9" s="1" t="s">
         <v>263</v>
       </c>
@@ -1606,8 +3697,19 @@
       <c r="G9" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H9" t="str">
+        <f>VLOOKUP($A9,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP($A9,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5">
       <c r="A10" s="1" t="s">
         <v>259</v>
       </c>
@@ -1629,8 +3731,19 @@
       <c r="G10" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H10" t="str">
+        <f>VLOOKUP($A10,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" t="str">
+        <f>VLOOKUP($A10,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5">
       <c r="A11" s="1" t="s">
         <v>259</v>
       </c>
@@ -1652,8 +3765,19 @@
       <c r="G11" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H11" t="str">
+        <f>VLOOKUP($A11,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" t="str">
+        <f>VLOOKUP($A11,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5">
       <c r="A12" s="1" t="s">
         <v>259</v>
       </c>
@@ -1675,8 +3799,19 @@
       <c r="G12" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H12" t="str">
+        <f>VLOOKUP($A12,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" t="str">
+        <f>VLOOKUP($A12,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -1696,8 +3831,19 @@
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H13" t="str">
+        <f>VLOOKUP($A13,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" t="str">
+        <f>VLOOKUP($A13,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5">
       <c r="A14" s="1" t="s">
         <v>242</v>
       </c>
@@ -1717,8 +3863,19 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H14" t="str">
+        <f>VLOOKUP($A14,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" t="str">
+        <f>VLOOKUP($A14,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5">
       <c r="A15" s="1" t="s">
         <v>242</v>
       </c>
@@ -1738,8 +3895,19 @@
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H15" t="str">
+        <f>VLOOKUP($A15,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" t="str">
+        <f>VLOOKUP($A15,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5">
       <c r="A16" s="1" t="s">
         <v>242</v>
       </c>
@@ -1759,8 +3927,19 @@
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H16" t="str">
+        <f>VLOOKUP($A16,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J16" t="str">
+        <f>VLOOKUP($A16,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.5">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
@@ -1782,8 +3961,19 @@
       <c r="G17" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H17" t="str">
+        <f>VLOOKUP($A17,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J17" t="str">
+        <f>VLOOKUP($A17,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5">
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
@@ -1805,8 +3995,19 @@
       <c r="G18" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H18" t="str">
+        <f>VLOOKUP($A18,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="J18" t="str">
+        <f>VLOOKUP($A18,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.5">
       <c r="A19" s="1" t="s">
         <v>242</v>
       </c>
@@ -1828,8 +4029,19 @@
       <c r="G19" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H19" t="str">
+        <f>VLOOKUP($A19,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J19" t="str">
+        <f>VLOOKUP($A19,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.5">
       <c r="A20" s="1" t="s">
         <v>242</v>
       </c>
@@ -1849,8 +4061,19 @@
       <c r="G20" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H20" t="str">
+        <f>VLOOKUP($A20,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" t="str">
+        <f>VLOOKUP($A20,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5">
       <c r="A21" s="1" t="s">
         <v>242</v>
       </c>
@@ -1870,8 +4093,19 @@
       <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H21" t="str">
+        <f>VLOOKUP($A21,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" t="str">
+        <f>VLOOKUP($A21,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.5">
       <c r="A22" s="1" t="s">
         <v>242</v>
       </c>
@@ -1891,8 +4125,19 @@
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H22" t="str">
+        <f>VLOOKUP($A22,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="J22" t="str">
+        <f>VLOOKUP($A22,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.5">
       <c r="A23" s="1" t="s">
         <v>225</v>
       </c>
@@ -1914,8 +4159,19 @@
       <c r="G23" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H23" t="str">
+        <f>VLOOKUP($A23,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" t="str">
+        <f>VLOOKUP($A23,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.5">
       <c r="A24" s="1" t="s">
         <v>225</v>
       </c>
@@ -1937,8 +4193,19 @@
       <c r="G24" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H24" t="str">
+        <f>VLOOKUP($A24,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="J24" t="str">
+        <f>VLOOKUP($A24,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.5">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
@@ -1960,8 +4227,19 @@
       <c r="G25" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H25" t="str">
+        <f>VLOOKUP($A25,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" t="str">
+        <f>VLOOKUP($A25,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.5">
       <c r="A26" s="1" t="s">
         <v>225</v>
       </c>
@@ -1983,8 +4261,19 @@
       <c r="G26" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H26" t="str">
+        <f>VLOOKUP($A26,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="J26" t="str">
+        <f>VLOOKUP($A26,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.5">
       <c r="A27" s="1" t="s">
         <v>225</v>
       </c>
@@ -2006,8 +4295,19 @@
       <c r="G27" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H27" t="str">
+        <f>VLOOKUP($A27,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="J27" t="str">
+        <f>VLOOKUP($A27,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5">
       <c r="A28" s="1" t="s">
         <v>225</v>
       </c>
@@ -2029,8 +4329,19 @@
       <c r="G28" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H28" t="str">
+        <f>VLOOKUP($A28,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="J28" t="str">
+        <f>VLOOKUP($A28,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.5">
       <c r="A29" s="1" t="s">
         <v>225</v>
       </c>
@@ -2052,8 +4363,19 @@
       <c r="G29" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H29" t="str">
+        <f>VLOOKUP($A29,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="J29" t="str">
+        <f>VLOOKUP($A29,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.5">
       <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
@@ -2075,8 +4397,19 @@
       <c r="G30" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H30" t="str">
+        <f>VLOOKUP($A30,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="J30" t="str">
+        <f>VLOOKUP($A30,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.5">
       <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
@@ -2098,8 +4431,19 @@
       <c r="G31" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H31" t="str">
+        <f>VLOOKUP($A31,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="J31" t="str">
+        <f>VLOOKUP($A31,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.5">
       <c r="A32" s="1" t="s">
         <v>225</v>
       </c>
@@ -2121,8 +4465,19 @@
       <c r="G32" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H32" t="str">
+        <f>VLOOKUP($A32,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="J32" t="str">
+        <f>VLOOKUP($A32,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="13.5">
       <c r="A33" s="1" t="s">
         <v>225</v>
       </c>
@@ -2144,8 +4499,19 @@
       <c r="G33" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H33" t="str">
+        <f>VLOOKUP($A33,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="J33" t="str">
+        <f>VLOOKUP($A33,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5">
       <c r="A34" s="1" t="s">
         <v>225</v>
       </c>
@@ -2167,8 +4533,19 @@
       <c r="G34" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H34" t="str">
+        <f>VLOOKUP($A34,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" t="str">
+        <f>VLOOKUP($A34,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="13.5">
       <c r="A35" s="1" t="s">
         <v>217</v>
       </c>
@@ -2190,8 +4567,19 @@
       <c r="G35" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H35" t="str">
+        <f>VLOOKUP($A35,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP($A35,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="13.5">
       <c r="A36" s="1" t="s">
         <v>217</v>
       </c>
@@ -2209,8 +4597,19 @@
       <c r="G36" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H36" t="str">
+        <f>VLOOKUP($A36,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="J36" t="str">
+        <f>VLOOKUP($A36,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="13.5">
       <c r="A37" s="1" t="s">
         <v>217</v>
       </c>
@@ -2232,8 +4631,19 @@
       <c r="G37" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H37" t="str">
+        <f>VLOOKUP($A37,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J37" t="str">
+        <f>VLOOKUP($A37,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="13.5">
       <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
@@ -2255,8 +4665,19 @@
       <c r="G38" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H38" t="str">
+        <f>VLOOKUP($A38,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP($A38,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="13.5">
       <c r="A39" s="1" t="s">
         <v>205</v>
       </c>
@@ -2278,8 +4699,19 @@
       <c r="G39" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H39" t="str">
+        <f>VLOOKUP($A39,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP($A39,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13.5">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
@@ -2301,8 +4733,19 @@
       <c r="G40" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H40" t="str">
+        <f>VLOOKUP($A40,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP($A40,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.5">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
@@ -2324,8 +4767,19 @@
       <c r="G41" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H41" t="str">
+        <f>VLOOKUP($A41,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP($A41,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="13.5">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
@@ -2347,8 +4801,19 @@
       <c r="G42" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H42" t="str">
+        <f>VLOOKUP($A42,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP($A42,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.5">
       <c r="A43" s="1" t="s">
         <v>205</v>
       </c>
@@ -2370,8 +4835,19 @@
       <c r="G43" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H43" t="str">
+        <f>VLOOKUP($A43,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="str">
+        <f>VLOOKUP($A43,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.5">
       <c r="A44" s="1" t="s">
         <v>205</v>
       </c>
@@ -2393,8 +4869,19 @@
       <c r="G44" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H44" t="str">
+        <f>VLOOKUP($A44,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP($A44,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5">
       <c r="A45" s="1" t="s">
         <v>200</v>
       </c>
@@ -2416,8 +4903,19 @@
       <c r="G45" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H45" t="str">
+        <f>VLOOKUP($A45,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="str">
+        <f>VLOOKUP($A45,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5">
       <c r="A46" s="1" t="s">
         <v>200</v>
       </c>
@@ -2439,8 +4937,19 @@
       <c r="G46" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H46" t="str">
+        <f>VLOOKUP($A46,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP($A46,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.5">
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
@@ -2462,8 +4971,19 @@
       <c r="G47" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H47" t="str">
+        <f>VLOOKUP($A47,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="str">
+        <f>VLOOKUP($A47,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.5">
       <c r="A48" s="1" t="s">
         <v>196</v>
       </c>
@@ -2485,8 +5005,19 @@
       <c r="G48" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H48" t="str">
+        <f>VLOOKUP($A48,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="str">
+        <f>VLOOKUP($A48,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="13.5">
       <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
@@ -2508,8 +5039,19 @@
       <c r="G49" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H49" t="str">
+        <f>VLOOKUP($A49,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP($A49,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="13.5">
       <c r="A50" s="1" t="s">
         <v>190</v>
       </c>
@@ -2531,8 +5073,19 @@
       <c r="G50" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H50" t="str">
+        <f>VLOOKUP($A50,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP($A50,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13.5">
       <c r="A51" s="1" t="s">
         <v>190</v>
       </c>
@@ -2554,8 +5107,19 @@
       <c r="G51" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H51" t="str">
+        <f>VLOOKUP($A51,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP($A51,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13.5">
       <c r="A52" s="1" t="s">
         <v>190</v>
       </c>
@@ -2577,8 +5141,19 @@
       <c r="G52" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H52" t="str">
+        <f>VLOOKUP($A52,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP($A52,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13.5">
       <c r="A53" s="1" t="s">
         <v>181</v>
       </c>
@@ -2600,8 +5175,19 @@
       <c r="G53" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H53" t="str">
+        <f>VLOOKUP($A53,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP($A53,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="13.5">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -2623,8 +5209,19 @@
       <c r="G54" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H54" t="str">
+        <f>VLOOKUP($A54,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP($A54,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13.5">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -2646,8 +5243,19 @@
       <c r="G55" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H55" t="str">
+        <f>VLOOKUP($A55,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP($A55,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="13.5">
       <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
@@ -2669,8 +5277,19 @@
       <c r="G56" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H56" t="str">
+        <f>VLOOKUP($A56,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP($A56,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13.5">
       <c r="A57" s="1" t="s">
         <v>181</v>
       </c>
@@ -2692,8 +5311,19 @@
       <c r="G57" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H57" t="str">
+        <f>VLOOKUP($A57,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP($A57,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="13.5">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -2715,8 +5345,19 @@
       <c r="G58" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H58" t="str">
+        <f>VLOOKUP($A58,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP($A58,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="13.5">
       <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
@@ -2738,8 +5379,19 @@
       <c r="G59" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H59" t="str">
+        <f>VLOOKUP($A59,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP($A59,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="13.5">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -2761,8 +5413,19 @@
       <c r="G60" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H60" t="str">
+        <f>VLOOKUP($A60,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP($A60,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13.5">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -2784,8 +5447,19 @@
       <c r="G61" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H61" t="str">
+        <f>VLOOKUP($A61,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP($A61,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="13.5">
       <c r="A62" s="1" t="s">
         <v>165</v>
       </c>
@@ -2807,8 +5481,19 @@
       <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H62" t="str">
+        <f>VLOOKUP($A62,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP($A62,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="13.5">
       <c r="A63" s="1" t="s">
         <v>165</v>
       </c>
@@ -2830,8 +5515,19 @@
       <c r="G63" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H63" t="str">
+        <f>VLOOKUP($A63,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP($A63,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="13.5">
       <c r="A64" s="1" t="s">
         <v>165</v>
       </c>
@@ -2853,8 +5549,19 @@
       <c r="G64" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H64" t="str">
+        <f>VLOOKUP($A64,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="str">
+        <f>VLOOKUP($A64,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="13.5">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -2874,8 +5581,19 @@
       <c r="G65" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H65" t="str">
+        <f>VLOOKUP($A65,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="J65" t="str">
+        <f>VLOOKUP($A65,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="13.5">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
@@ -2895,8 +5613,19 @@
       <c r="G66" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H66" t="str">
+        <f>VLOOKUP($A66,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="J66" t="str">
+        <f>VLOOKUP($A66,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="13.5">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2916,8 +5645,19 @@
       <c r="G67" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H67" t="str">
+        <f>VLOOKUP($A67,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" t="str">
+        <f>VLOOKUP($A67,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="13.5">
       <c r="A68" s="1" t="s">
         <v>114</v>
       </c>
@@ -2937,8 +5677,19 @@
       <c r="G68" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H68" t="str">
+        <f>VLOOKUP($A68,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" t="str">
+        <f>VLOOKUP($A68,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="13.5">
       <c r="A69" s="1" t="s">
         <v>114</v>
       </c>
@@ -2958,8 +5709,19 @@
       <c r="G69" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H69" t="str">
+        <f>VLOOKUP($A69,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="J69" t="str">
+        <f>VLOOKUP($A69,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="13.5">
       <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
@@ -2979,8 +5741,19 @@
       <c r="G70" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H70" t="str">
+        <f>VLOOKUP($A70,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="J70" t="str">
+        <f>VLOOKUP($A70,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="13.5">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -3002,8 +5775,19 @@
       <c r="G71" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H71" t="str">
+        <f>VLOOKUP($A71,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="J71" t="str">
+        <f>VLOOKUP($A71,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="13.5">
       <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
@@ -3025,8 +5809,19 @@
       <c r="G72" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H72" t="str">
+        <f>VLOOKUP($A72,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP($A72,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="13.5">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -3048,8 +5843,19 @@
       <c r="G73" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H73" t="str">
+        <f>VLOOKUP($A73,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="J73" t="str">
+        <f>VLOOKUP($A73,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="13.5">
       <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
@@ -3071,8 +5877,19 @@
       <c r="G74" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H74" t="str">
+        <f>VLOOKUP($A74,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="J74" t="str">
+        <f>VLOOKUP($A74,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="13.5">
       <c r="A75" s="1" t="s">
         <v>114</v>
       </c>
@@ -3094,8 +5911,19 @@
       <c r="G75" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H75" t="str">
+        <f>VLOOKUP($A75,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="J75" t="str">
+        <f>VLOOKUP($A75,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="13.5">
       <c r="A76" s="1" t="s">
         <v>114</v>
       </c>
@@ -3117,8 +5945,19 @@
       <c r="G76" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H76" t="str">
+        <f>VLOOKUP($A76,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" t="str">
+        <f>VLOOKUP($A76,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="13.5">
       <c r="A77" s="1" t="s">
         <v>114</v>
       </c>
@@ -3140,8 +5979,19 @@
       <c r="G77" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H77" t="str">
+        <f>VLOOKUP($A77,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="J77" t="str">
+        <f>VLOOKUP($A77,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="13.5">
       <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
@@ -3163,8 +6013,19 @@
       <c r="G78" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H78" t="str">
+        <f>VLOOKUP($A78,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="J78" t="str">
+        <f>VLOOKUP($A78,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="13.5">
       <c r="A79" s="1" t="s">
         <v>114</v>
       </c>
@@ -3186,8 +6047,19 @@
       <c r="G79" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H79" t="str">
+        <f>VLOOKUP($A79,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="J79" t="str">
+        <f>VLOOKUP($A79,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="13.5">
       <c r="A80" s="1" t="s">
         <v>114</v>
       </c>
@@ -3209,8 +6081,19 @@
       <c r="G80" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H80" t="str">
+        <f>VLOOKUP($A80,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="J80" t="str">
+        <f>VLOOKUP($A80,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="13.5">
       <c r="A81" s="1" t="s">
         <v>114</v>
       </c>
@@ -3232,8 +6115,19 @@
       <c r="G81" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H81" t="str">
+        <f>VLOOKUP($A81,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="J81" t="str">
+        <f>VLOOKUP($A81,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="13.5">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -3255,8 +6149,19 @@
       <c r="G82" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H82" t="str">
+        <f>VLOOKUP($A82,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J82" t="str">
+        <f>VLOOKUP($A82,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="13.5">
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
@@ -3278,8 +6183,19 @@
       <c r="G83" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H83" t="str">
+        <f>VLOOKUP($A83,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="J83" t="str">
+        <f>VLOOKUP($A83,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="13.5">
       <c r="A84" s="1" t="s">
         <v>114</v>
       </c>
@@ -3301,8 +6217,19 @@
       <c r="G84" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H84" t="str">
+        <f>VLOOKUP($A84,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="J84" t="str">
+        <f>VLOOKUP($A84,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="13.5">
       <c r="A85" s="1" t="s">
         <v>108</v>
       </c>
@@ -3322,8 +6249,19 @@
       <c r="G85" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H85" t="str">
+        <f>VLOOKUP($A85,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J85" t="str">
+        <f>VLOOKUP($A85,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="13.5">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -3345,8 +6283,19 @@
       <c r="G86" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H86" t="str">
+        <f>VLOOKUP($A86,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="J86" t="str">
+        <f>VLOOKUP($A86,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="13.5">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -3368,8 +6317,19 @@
       <c r="G87" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H87" t="str">
+        <f>VLOOKUP($A87,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="J87" t="str">
+        <f>VLOOKUP($A87,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="13.5">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3391,8 +6351,19 @@
       <c r="G88" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H88" t="str">
+        <f>VLOOKUP($A88,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="J88" t="str">
+        <f>VLOOKUP($A88,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="13.5">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -3414,8 +6385,19 @@
       <c r="G89" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H89" t="str">
+        <f>VLOOKUP($A89,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="J89" t="str">
+        <f>VLOOKUP($A89,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="13.5">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -3437,8 +6419,19 @@
       <c r="G90" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H90" t="str">
+        <f>VLOOKUP($A90,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="J90" t="str">
+        <f>VLOOKUP($A90,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="13.5">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -3460,8 +6453,19 @@
       <c r="G91" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H91" t="str">
+        <f>VLOOKUP($A91,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J91" t="str">
+        <f>VLOOKUP($A91,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="13.5">
       <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
@@ -3483,8 +6487,19 @@
       <c r="G92" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H92" t="str">
+        <f>VLOOKUP($A92,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="J92" t="str">
+        <f>VLOOKUP($A92,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="13.5">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -3506,8 +6521,19 @@
       <c r="G93" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H93" t="str">
+        <f>VLOOKUP($A93,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J93" t="str">
+        <f>VLOOKUP($A93,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="13.5">
       <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
@@ -3527,8 +6553,19 @@
       <c r="G94" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H94" t="str">
+        <f>VLOOKUP($A94,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="J94" t="str">
+        <f>VLOOKUP($A94,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="13.5">
       <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
@@ -3550,8 +6587,19 @@
       <c r="G95" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H95" t="str">
+        <f>VLOOKUP($A95,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="J95" t="str">
+        <f>VLOOKUP($A95,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="13.5">
       <c r="A96" s="1" t="s">
         <v>79</v>
       </c>
@@ -3573,8 +6621,19 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H96" t="str">
+        <f>VLOOKUP($A96,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="J96" t="str">
+        <f>VLOOKUP($A96,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="13.5">
       <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
@@ -3596,8 +6655,19 @@
       <c r="G97" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H97" t="str">
+        <f>VLOOKUP($A97,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="J97" t="str">
+        <f>VLOOKUP($A97,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="13.5">
       <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
@@ -3619,8 +6689,19 @@
       <c r="G98" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="H98" t="str">
+        <f>VLOOKUP($A98,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="J98" t="str">
+        <f>VLOOKUP($A98,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="27">
       <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
@@ -3642,8 +6723,19 @@
       <c r="G99" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H99" t="str">
+        <f>VLOOKUP($A99,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="J99" t="str">
+        <f>VLOOKUP($A99,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="13.5">
       <c r="A100" s="1" t="s">
         <v>79</v>
       </c>
@@ -3665,8 +6757,19 @@
       <c r="G100" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H100" t="str">
+        <f>VLOOKUP($A100,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="J100" t="str">
+        <f>VLOOKUP($A100,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="13.5">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
@@ -3688,8 +6791,19 @@
       <c r="G101" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H101" t="str">
+        <f>VLOOKUP($A101,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="J101" t="str">
+        <f>VLOOKUP($A101,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="13.5">
       <c r="A102" s="1" t="s">
         <v>79</v>
       </c>
@@ -3711,8 +6825,19 @@
       <c r="G102" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H102" t="str">
+        <f>VLOOKUP($A102,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="J102" t="str">
+        <f>VLOOKUP($A102,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="13.5">
       <c r="A103" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +6859,19 @@
       <c r="G103" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H103" t="str">
+        <f>VLOOKUP($A103,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="J103" t="str">
+        <f>VLOOKUP($A103,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="13.5">
       <c r="A104" s="1" t="s">
         <v>79</v>
       </c>
@@ -3757,8 +6893,19 @@
       <c r="G104" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H104" t="str">
+        <f>VLOOKUP($A104,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="J104" t="str">
+        <f>VLOOKUP($A104,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="13.5">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
@@ -3780,8 +6927,19 @@
       <c r="G105" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H105" t="str">
+        <f>VLOOKUP($A105,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J105" t="str">
+        <f>VLOOKUP($A105,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="13.5">
       <c r="A106" s="1" t="s">
         <v>73</v>
       </c>
@@ -3803,8 +6961,19 @@
       <c r="G106" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H106" t="str">
+        <f>VLOOKUP($A106,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="J106" t="str">
+        <f>VLOOKUP($A106,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="13.5">
       <c r="A107" s="1" t="s">
         <v>73</v>
       </c>
@@ -3826,8 +6995,19 @@
       <c r="G107" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H107" t="str">
+        <f>VLOOKUP($A107,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="J107" t="str">
+        <f>VLOOKUP($A107,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="13.5">
       <c r="A108" s="1" t="s">
         <v>73</v>
       </c>
@@ -3849,8 +7029,19 @@
       <c r="G108" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H108" t="str">
+        <f>VLOOKUP($A108,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="J108" t="str">
+        <f>VLOOKUP($A108,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="13.5">
       <c r="A109" s="1" t="s">
         <v>66</v>
       </c>
@@ -3872,8 +7063,19 @@
       <c r="G109" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H109" t="str">
+        <f>VLOOKUP($A109,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="J109" t="str">
+        <f>VLOOKUP($A109,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="13.5">
       <c r="A110" s="1" t="s">
         <v>66</v>
       </c>
@@ -3895,8 +7097,19 @@
       <c r="G110" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H110" t="str">
+        <f>VLOOKUP($A110,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="J110" t="str">
+        <f>VLOOKUP($A110,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="13.5">
       <c r="A111" s="1" t="s">
         <v>66</v>
       </c>
@@ -3918,8 +7131,19 @@
       <c r="G111" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H111" t="str">
+        <f>VLOOKUP($A111,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="J111" t="str">
+        <f>VLOOKUP($A111,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="13.5">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +7165,19 @@
       <c r="G112" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H112" t="str">
+        <f>VLOOKUP($A112,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="J112" t="str">
+        <f>VLOOKUP($A112,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="13.5">
       <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
@@ -3964,8 +7199,19 @@
       <c r="G113" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H113" t="str">
+        <f>VLOOKUP($A113,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I113" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="J113" t="str">
+        <f>VLOOKUP($A113,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="13.5">
       <c r="A114" s="1" t="s">
         <v>60</v>
       </c>
@@ -3987,8 +7233,19 @@
       <c r="G114" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H114" t="str">
+        <f>VLOOKUP($A114,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="J114" t="str">
+        <f>VLOOKUP($A114,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="13.5">
       <c r="A115" s="1" t="s">
         <v>60</v>
       </c>
@@ -4010,8 +7267,19 @@
       <c r="G115" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H115" t="str">
+        <f>VLOOKUP($A115,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I115" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="J115" t="str">
+        <f>VLOOKUP($A115,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="13.5">
       <c r="A116" s="1" t="s">
         <v>55</v>
       </c>
@@ -4033,8 +7301,19 @@
       <c r="G116" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H116" t="str">
+        <f>VLOOKUP($A116,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="J116" t="str">
+        <f>VLOOKUP($A116,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="13.5">
       <c r="A117" s="1" t="s">
         <v>55</v>
       </c>
@@ -4056,8 +7335,19 @@
       <c r="G117" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H117" t="str">
+        <f>VLOOKUP($A117,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I117" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="J117" t="str">
+        <f>VLOOKUP($A117,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="13.5">
       <c r="A118" s="1" t="s">
         <v>53</v>
       </c>
@@ -4077,8 +7367,19 @@
       <c r="G118" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H118" t="str">
+        <f>VLOOKUP($A118,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="J118" t="str">
+        <f>VLOOKUP($A118,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="13.5">
       <c r="A119" s="1" t="s">
         <v>47</v>
       </c>
@@ -4098,8 +7399,19 @@
       <c r="G119" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H119" t="str">
+        <f>VLOOKUP($A119,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="J119" t="str">
+        <f>VLOOKUP($A119,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="13.5">
       <c r="A120" s="1" t="s">
         <v>47</v>
       </c>
@@ -4121,8 +7433,19 @@
       <c r="G120" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="H120" t="str">
+        <f>VLOOKUP($A120,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="J120" t="str">
+        <f>VLOOKUP($A120,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="13.5">
       <c r="A121" s="1" t="s">
         <v>47</v>
       </c>
@@ -4144,8 +7467,19 @@
       <c r="G121" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H121" t="str">
+        <f>VLOOKUP($A121,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I121" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="J121" t="str">
+        <f>VLOOKUP($A121,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="13.5">
       <c r="A122" s="1" t="s">
         <v>36</v>
       </c>
@@ -4167,8 +7501,19 @@
       <c r="G122" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H122" t="str">
+        <f>VLOOKUP($A122,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="J122" t="str">
+        <f>VLOOKUP($A122,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="13.5">
       <c r="A123" s="1" t="s">
         <v>36</v>
       </c>
@@ -4190,8 +7535,19 @@
       <c r="G123" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H123" t="str">
+        <f>VLOOKUP($A123,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I123" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J123" t="str">
+        <f>VLOOKUP($A123,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="13.5">
       <c r="A124" s="1" t="s">
         <v>36</v>
       </c>
@@ -4213,8 +7569,19 @@
       <c r="G124" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H124" t="str">
+        <f>VLOOKUP($A124,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I124" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="J124" t="str">
+        <f>VLOOKUP($A124,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="13.5">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -4236,8 +7603,19 @@
       <c r="G125" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H125" t="str">
+        <f>VLOOKUP($A125,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="J125" t="str">
+        <f>VLOOKUP($A125,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="13.5">
       <c r="A126" s="1" t="s">
         <v>36</v>
       </c>
@@ -4259,8 +7637,19 @@
       <c r="G126" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H126" t="str">
+        <f>VLOOKUP($A126,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="J126" t="str">
+        <f>VLOOKUP($A126,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="13.5">
       <c r="A127" s="1" t="s">
         <v>30</v>
       </c>
@@ -4282,8 +7671,19 @@
       <c r="G127" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H127" t="str">
+        <f>VLOOKUP($A127,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="J127" t="str">
+        <f>VLOOKUP($A127,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="13.5">
       <c r="A128" s="1" t="s">
         <v>30</v>
       </c>
@@ -4303,8 +7703,19 @@
       <c r="G128" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H128" t="str">
+        <f>VLOOKUP($A128,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I128" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="J128" t="str">
+        <f>VLOOKUP($A128,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="13.5">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -4326,8 +7737,19 @@
       <c r="G129" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H129" t="str">
+        <f>VLOOKUP($A129,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I129" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="J129" t="str">
+        <f>VLOOKUP($A129,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="13.5">
       <c r="A130" s="1" t="s">
         <v>15</v>
       </c>
@@ -4349,8 +7771,19 @@
       <c r="G130" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H130" t="str">
+        <f>VLOOKUP($A130,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="J130" t="str">
+        <f>VLOOKUP($A130,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="13.5">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -4372,8 +7805,19 @@
       <c r="G131" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H131" t="str">
+        <f>VLOOKUP($A131,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J131" t="str">
+        <f>VLOOKUP($A131,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Zanzibar)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="13.5">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -4395,8 +7839,19 @@
       <c r="G132" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H132" t="str">
+        <f>VLOOKUP($A132,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="J132" t="str">
+        <f>VLOOKUP($A132,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Zanzibar)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="13.5">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -4418,8 +7873,19 @@
       <c r="G133" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H133" t="str">
+        <f>VLOOKUP($A133,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="J133" t="str">
+        <f>VLOOKUP($A133,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Zanzibar)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="13.5">
       <c r="A134" s="1" t="s">
         <v>15</v>
       </c>
@@ -4441,8 +7907,19 @@
       <c r="G134" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H134" t="str">
+        <f>VLOOKUP($A134,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I134" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J134" t="str">
+        <f>VLOOKUP($A134,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="13.5">
       <c r="A135" s="1" t="s">
         <v>15</v>
       </c>
@@ -4464,8 +7941,19 @@
       <c r="G135" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="H135" t="str">
+        <f>VLOOKUP($A135,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="I135" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="J135" t="str">
+        <f>VLOOKUP($A135,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="13.5">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -4487,8 +7975,19 @@
       <c r="G136" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H136" t="str">
+        <f>VLOOKUP($A136,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="J136" t="str">
+        <f>VLOOKUP($A136,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="13.5">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
@@ -4510,8 +8009,19 @@
       <c r="G137" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H137" t="str">
+        <f>VLOOKUP($A137,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="J137" t="str">
+        <f>VLOOKUP($A137,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="13.5">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +8043,19 @@
       <c r="G138" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H138" t="str">
+        <f>VLOOKUP($A138,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="J138" t="str">
+        <f>VLOOKUP($A138,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="13.5">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -4556,8 +8077,19 @@
       <c r="G139" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H139" t="str">
+        <f>VLOOKUP($A139,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="J139" t="str">
+        <f>VLOOKUP($A139,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="13.5">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -4579,8 +8111,19 @@
       <c r="G140" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="H140" t="str">
+        <f>VLOOKUP($A140,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="J140" t="str">
+        <f>VLOOKUP($A140,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="13.5">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -4601,6 +8144,560 @@
       </c>
       <c r="G141" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="H141" t="str">
+        <f>VLOOKUP($A141,Sheet1!$A$1:$E$31, 3, FALSE)</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="J141" t="str">
+        <f>VLOOKUP($A141,Sheet1!$A$1:$E$31, 5, FALSE)</f>
+        <v>Panama</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED152F1-1B29-4C80-AB4C-8FEA2A933923}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="23.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27">
+      <c r="A1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5">
+      <c r="A2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="15" t="str" cm="1">
+        <f t="array" ref="C2">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A2) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B2), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5">
+      <c r="A3" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="15" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A3) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B3), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5">
+      <c r="A4" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="15" t="str" cm="1">
+        <f t="array" ref="C4">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A4) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B4), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5">
+      <c r="A5" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="15" t="str" cm="1">
+        <f t="array" ref="C5">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A5) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B5), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5">
+      <c r="A6" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="15" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A6) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B6), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="str" cm="1">
+        <f t="array" ref="E6">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A6) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B6), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5">
+      <c r="A7" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="15" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A7) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B7), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>trademarks@castillo.com.do</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="str" cm="1">
+        <f t="array" ref="E7">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A7) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B7), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5">
+      <c r="A8" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="15" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A8) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B8), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="str" cm="1">
+        <f t="array" ref="E8">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A8) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B8), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5">
+      <c r="A9" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="15" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A9) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B9), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="str" cm="1">
+        <f t="array" ref="E9">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A9) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B9), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5">
+      <c r="A10" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="15" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A10) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B10), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="str" cm="1">
+        <f t="array" ref="E10">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A10) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B10), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5">
+      <c r="A11" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="15" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A11) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B11), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="str" cm="1">
+        <f t="array" ref="E11">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A11) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B11), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.5">
+      <c r="A12" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="15" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A12) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B12), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="str" cm="1">
+        <f t="array" ref="E12">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A12) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B12), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.5">
+      <c r="A13" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="15" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A13) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B13), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="str" cm="1">
+        <f t="array" ref="E13">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A13) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B13), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27">
+      <c r="A14" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="15" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A14) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B14), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="str" cm="1">
+        <f t="array" ref="E14">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A14) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B14), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Myanmar (Burma)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5">
+      <c r="A15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="15" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A15) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B15), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="str" cm="1">
+        <f t="array" ref="E15">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A15) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B15), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5">
+      <c r="A16" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="15" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A16) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B16), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="str" cm="1">
+        <f t="array" ref="E16">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A16) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B16), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.5">
+      <c r="A17" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="15" t="str" cm="1">
+        <f t="array" ref="C17">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A17) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B17), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="str" cm="1">
+        <f t="array" ref="E17">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A17) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B17), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.5">
+      <c r="A18" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="15" t="str" cm="1">
+        <f t="array" ref="C18">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A18) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B18), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="str" cm="1">
+        <f t="array" ref="E18">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A18) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B18), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5">
+      <c r="A19" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="15" t="str" cm="1">
+        <f t="array" ref="C19">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A19) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B19), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="str" cm="1">
+        <f t="array" ref="E19">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A19) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B19), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="15" t="str" cm="1">
+        <f t="array" ref="C20">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A20) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B20), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="str" cm="1">
+        <f t="array" ref="E20">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A20) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B20), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5">
+      <c r="A21" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="15" t="str" cm="1">
+        <f t="array" ref="C21">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A21) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B21), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="str" cm="1">
+        <f t="array" ref="E21">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A21) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B21), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>OAPI (African Intellectual Property Organization)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.5">
+      <c r="A22" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="15" t="str" cm="1">
+        <f t="array" ref="C22">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A22) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B22), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="str" cm="1">
+        <f t="array" ref="E22">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A22) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B22), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5">
+      <c r="A23" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="15" t="str" cm="1">
+        <f t="array" ref="C23">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A23) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B23), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="str" cm="1">
+        <f t="array" ref="E23">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A23) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B23), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5">
+      <c r="A24" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="15" t="str" cm="1">
+        <f t="array" ref="C24">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A24) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B24), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="str" cm="1">
+        <f t="array" ref="E24">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A24) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B24), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5">
+      <c r="A25" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="15" t="str" cm="1">
+        <f t="array" ref="C25">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A25) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B25), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="str" cm="1">
+        <f t="array" ref="E25">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A25) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B25), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Tanzania (Tanganyika)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5">
+      <c r="A26" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="15" t="str" cm="1">
+        <f t="array" ref="C26">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A26) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B26), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="str" cm="1">
+        <f t="array" ref="E26">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A26) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B26), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.5">
+      <c r="A27" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="15" t="str" cm="1">
+        <f t="array" ref="C27">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A27) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B27), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="str" cm="1">
+        <f t="array" ref="E27">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A27) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B27), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5">
+      <c r="A28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="15" t="str" cm="1">
+        <f t="array" ref="C28">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A28) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B28), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="str" cm="1">
+        <f t="array" ref="E28">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A28) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B28), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.5">
+      <c r="A29" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="15" t="str" cm="1">
+        <f t="array" ref="C29">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A29) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B29), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="str" cm="1">
+        <f t="array" ref="E29">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A29) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B29), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.5">
+      <c r="A30" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="15" t="str" cm="1">
+        <f t="array" ref="C30">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A30) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B30), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>info@ensafrica.com; rforster@ensafrica.com</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="str" cm="1">
+        <f t="array" ref="E30">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A30) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B30), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.5">
+      <c r="A31" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="15" t="str" cm="1">
+        <f t="array" ref="C31">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A31) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B31), [1]Sheet1!$D$2:$D$497, "")</f>
+        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="str" cm="1">
+        <f t="array" ref="E31">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A31) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B31), [1]Sheet1!$C$2:$C$497, "")</f>
+        <v>Tanzania (Zanzibar)</v>
       </c>
     </row>
   </sheetData>

--- a/List of Marks.xlsx
+++ b/List of Marks.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0681b4fdd7237a0d/특허법인 성암/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0681b4fdd7237a0d/특허법인 성암/Address_Change_Mailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDE466A-D364-4476-B18A-DB9E3DB91A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0EDE466A-D364-4476-B18A-DB9E3DB91A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92164405-18A2-412C-B609-C02EB859F215}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58A97DC-AC7F-4C9D-AD24-5F00CA83644C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="475">
   <si>
     <t>77839</t>
   </si>
@@ -992,611 +966,548 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>현지대리인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VON</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENSAfrica</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASTELLANOS &amp; Co.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GH</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>KE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tilleke (미얀마)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MZ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NG</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UG</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vision</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZZ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>To</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark43@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark44@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark45@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark46@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark47@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark48@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark49@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark50@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark51@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark52@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark53@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark54@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark55@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark56@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark57@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark58@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark59@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark60@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark61@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark62@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark63@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark64@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark65@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark66@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark67@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark68@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark69@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark70@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark71@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark72@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark73@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark74@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark75@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark76@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark77@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark78@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark79@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark80@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark81@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark82@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark83@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark84@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark85@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark86@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark87@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark88@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark89@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark90@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark91@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark92@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark93@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark94@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark95@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark96@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark97@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark98@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark99@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark100@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark101@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark102@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark103@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark104@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark105@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark106@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark107@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark108@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark109@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark110@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark111@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark112@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark113@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark114@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark115@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark116@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark117@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark118@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark119@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark120@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark121@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark122@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark123@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark124@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark125@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark126@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark127@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark128@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark129@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark130@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark131@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark132@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark133@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark134@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark135@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark136@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark137@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark138@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark139@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark140@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark141@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark142@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark143@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark144@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark145@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark146@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark147@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark148@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark149@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark150@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark151@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark152@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark153@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark154@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark155@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark156@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark157@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark158@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark159@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark160@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark161@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark162@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark163@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark164@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark165@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark166@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark167@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark168@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark169@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark170@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark171@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark172@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark173@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark174@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark175@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark176@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark177@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark178@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark179@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark180@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark181@sungampat.com</t>
+  </si>
+  <si>
+    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark182@sungampat.com</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>info@ensafrica.com; rforster@ensafrica.com</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Tanzania (Zanzibar)</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Myanmar (Burma)</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>trademarks@castillo.com.do</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</t>
+  </si>
+  <si>
+    <t>OAPI (African Intellectual Property Organization)</t>
+  </si>
+  <si>
+    <t>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</t>
+  </si>
+  <si>
+    <t>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Tanzania (Tanganyika)</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Botswana</t>
   </si>
   <si>
     <t>Angola</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Botswana</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colombia</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castillo y Castillo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guy Jose Bendana-Guerrero &amp; Asociados</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark43@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark44@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark45@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark46@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark47@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark48@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark49@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark50@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark51@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark52@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark53@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark54@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark55@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark56@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark57@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark58@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark59@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark60@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark61@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark62@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark63@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark64@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark65@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark66@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark67@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark68@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark69@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark70@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark71@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark72@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark73@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark74@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark75@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark76@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark77@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark78@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark79@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark80@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark81@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark82@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark83@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark84@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark85@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark86@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark87@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark88@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark89@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark90@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark91@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark92@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark93@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark94@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark95@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark96@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark97@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark98@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark99@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark100@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark101@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark102@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark103@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark104@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark105@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark106@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark107@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark108@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark109@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark110@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark111@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark112@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark113@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark114@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark115@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark116@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark117@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark118@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark119@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark120@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark121@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark122@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark123@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark124@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark125@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark126@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark127@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark128@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark129@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark130@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark131@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark132@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark133@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark134@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark135@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark136@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark137@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark138@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark139@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark140@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark141@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark142@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark143@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark144@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark145@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark146@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark147@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark148@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark149@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark150@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark151@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark152@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark153@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark154@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark155@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark156@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark157@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark158@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark159@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark160@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark161@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark162@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark163@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark164@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark165@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark166@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark167@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark168@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark169@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark170@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark171@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark172@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark173@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark174@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark175@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark176@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark177@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark178@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark179@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark180@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark181@sungampat.com</t>
-  </si>
-  <si>
-    <t>특허법인 성암/전숙현 변리사 &lt;shjeon@sungampat.com&gt;; 'trademark@sungampat.com'; 특허법인 성암/예희남 차장 &lt;trademark22@sungampat.com&gt;; 특허법인 성암/오연지 대리 &lt;trademark37@sungampat.com&gt;; 특허법인 성암/진주 대리 &lt;trademark39@sungampat.com&gt;; 특허법인 성암/양은혜 과장 &lt;trademark42@sungampat.com&gt;; trademark182@sungampat.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1616,14 +1527,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
@@ -1637,34 +1540,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1683,13 +1564,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1727,81 +1603,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1815,44 +1621,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1866,1214 +1641,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>AD</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ASTURGO, MATEU &amp; associats</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Andorra</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>trademarks@asturgomateu.ad</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>AR</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>PALACIO</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Argentina</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>palacio@palacio.com.ar; marcas@palacio.com.ar</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>BD</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ISLAM &amp; CO</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Bangladesh</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>information@islamandcolawoffice.com</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>BM</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Hilborne, Hawkin &amp; Co.</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Bermuda</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BO</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Sorvill</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Bolivia</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>sorvill@sorvill.com</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>BS</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Mosko &amp; Associates (구: Mary C. Katina mosko)</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Bahamas</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Katina Mosko' &lt;kmosko@moskolaw.com&gt;</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>CN</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>LIU</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>China</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>yuanmab@liu-shen.com; yuanyuan@liu-shen.com</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>CR</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Iberbrand Intellectual LLC</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Costa Rica</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Foreigntrademark &lt;foreigntrademark@iberbrand.com&gt;</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>DM</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>AC INTELLECTUAL PROPERTY SERVICES, S. A.(구: Asesores del Ca</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Dominica</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>asesoresip@asesoresdelcaribe.com</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>DO</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Castillo y Castillo</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Dominican Republic</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>trademarks@castillo.com.do</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EC</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Bermeo &amp; Bermeo Law Firm</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Ecuador</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>mail@bermeolaw.com</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EC</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Bermeo</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Ecuador</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>mail@bermeolaw.com</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>EL</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Eproint (Portal IP)(EL)</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>El Salvador</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>mcarrillo@eproint.com</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>FR</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>CASALONGA</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>France</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Claire de DEMANDOLX (Casalonga)' &lt;c.demandolx@casalonga.com&gt;; 'Elsa TROMBITAS (Casalonga)' &lt;e.trombitas@casalonga.com&gt;; 'Karina DIMIDJIAN-LECOMTE (Casalonga)' &lt;k.dimidjian@casalonga.com&gt;; 'Laurent CAVALLIER (Casalonga)' &lt;l.cavallier@casalonga.com&gt;; 'Klervi HENRY (Casalonga)' &lt;k.henry@casalonga.com&gt;; 'Monica FERREIRA (Casalonga)' &lt;m.ferreira@casalonga.com&gt;</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>GT</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Viteri &amp; Viteri</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Guatemala</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>contacto@viteriviteri.com</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>GT</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Viteri</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Guatemala</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>contacto@viteriviteri.com</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>GY</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>MATHYS &amp; SQUIRE LLP (London)</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Guyana</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>HK</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v xml:space="preserve">Wilkinson </v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Hong Kong</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>trademarks@wilgrist.com</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>HN</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Bufete Mejia &amp; Asociado</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Honduras</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v xml:space="preserve">ipadmin1@bufetemejia.com </v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>HN</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Bufete Mejia</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Honduras</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v xml:space="preserve">ipadmin1@bufetemejia.com </v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>HT</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>CABINET SALES</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Haiti</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>trademarks@cabinetsales.com; spaul@cabinetsales.com</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>IN</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>DE PENNING</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>India</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Paramita.Nandy@depenning.com; Ruchi.Singh@depenning.com</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>JE</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>MATHYS &amp; SQUIRE (Manchester)</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Jersey</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;; Sue Wycherley &lt;SWycherley@mathys-squire.com&gt;; Lucy Dayson &lt;LDayson@mathys-squire.com&gt;</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>JP</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>R&amp;C</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Japan</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>'Seiji OTA' &lt;seiji.ota@rc-iplaw.com&gt;; trademark@rc-iplaw.com; 'Sonoko ARAKI' &lt;sonoko.araki@rc-iplaw.com&gt;</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>KN</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Kelsick, Wilkin &amp; Ferdi</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Saint Kitts &amp; Nevis</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>IP Department &lt;ipdesk@kwfonline.com&gt;</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>KY</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>HSM IP Ltd. (구: APPLEBY)</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Cayman Islands</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>kcleary@hsmoffice.com</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>LK</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>Nithi Murugesu &amp; Associates</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Sri Lanka</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Trademark M&amp;A Law &lt;tm@nithimurugesu.com&gt;</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>MS</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>MATHYS &amp; SQUIRE LLP (London)</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Monserrat</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>Rebecca Tew &lt;RLTew@mathys-squire.com&gt;</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>MT</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>Bezzina &amp; Mifsud Patent Bureau</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Malta</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>Bezzina &amp; Mifsud Patentbureau &lt;info@bezmif.com&gt;</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>MV</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>Hilborne, Hawkin &amp; Co.</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Maldives</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>NI</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>Guy Jose Bendana-Guerrero &amp; Asociados</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Nicaragua</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>NP</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>LexOrbis Intellectual Property Practice</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Nepal</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>Abhai Pandey | LexOrbis &lt;Abhai@lexorbis.com&gt;</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>PA</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>Morgan &amp; Morgan Attorneys at Law</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Panama</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>Emily Escartin &lt;emily.escartin@morimor.com&gt;</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>PE</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>allende &amp; garcia</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Peru</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>jorge@allendegarcia.com.pe</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>PE</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>allende &amp; garcia</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>PU</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>HSM IP Ltd. (구: APPLEBY)</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Puerto Rico</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>kcleary@hsmoffice.com</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>TO</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>Hilborne, Hawkin &amp; Co.</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Tonga</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>ukhan@hilbornehawkin.com; Info@hilbornehawkin.com</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>US</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>GREENBERG</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>the United States</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>SchlossD@gtlaw.com; kimc@gtlaw.com; EDLINR@gtlaw.com; JongIn.Son@gtlaw.com; SchlossD@gtlaw.com</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>UY</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>CIKATO</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Uruguay</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>matias.cikato@cikato.com.uy</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>VE</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>Montoya, Kociecki &amp; Asociados(VE)</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Venezuela</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>Montoya, Kociecki &amp; Asociados Exterior &lt;exterior@mkmarcas.com&gt;</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>AO</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Angola</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>BW</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Botswana</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>CD</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Democratic Republic of the Congo (Zaire)</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>CO</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>CASTELLANOS &amp; Co.</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Colombia</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>DJ</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Djibouti</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>ET</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Ethiopia</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>GH</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Ghana</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>GM</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Gambia</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>KE</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Kenya</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>LR</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Liberia</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>MG</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Madagascar</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>MI</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>Tilleke (미얀마)</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Myanmar (Burma)</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>MU</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Mauritius</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>MW</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Malawi</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>MZ</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Mozambique</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>NA</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Namibia</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>NG</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Nigeria</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>OA</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>OAPI (African Intellectual Property Organization)</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>SD</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>Sudan</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>SO</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Somalia</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>TZ</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Tanzania (Tanganyika)</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>UG</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>Uganda</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>VN</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>Vision</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>Vietnam</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>ZA</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>South Africa</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>ZM</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>Zambia</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>ZW</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>Zimbabwe</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>info@ensafrica.com; rforster@ensafrica.com</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>ZZ</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>VON</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>Tanzania (Zanzibar)</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>PA</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>CASTELLANOS &amp; Co.</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>Panama</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>AO</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>BW</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>CD</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>CO</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>CASTELLANOS &amp; Co.</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>DJ</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>DO</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Castillo y Castillo</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>ET</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>GH</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>GM</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>KE</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>LR</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>MG</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>MI</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Tilleke (미얀마)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>MU</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>MW</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>MZ</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>NA</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>NG</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>NI</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Guy Jose Bendana-Guerrero &amp; Asociados</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>OA</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>PA</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>CASTELLANOS &amp; Co.</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>SD</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>SO</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>TZ</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>UG</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>VN</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>Vision</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>ZA</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>ZM</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>ZW</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>ENSAfrica</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>ZZ</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>VON</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3396,7 +1963,7 @@
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3459,16 +2026,14 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="str">
-        <f>VLOOKUP($A2,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" t="str">
-        <f>VLOOKUP($A2,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5">
@@ -3493,16 +2058,14 @@
       <c r="G3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H3" t="str">
-        <f>VLOOKUP($A3,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="J3" t="str">
-        <f>VLOOKUP($A3,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5">
@@ -3527,16 +2090,14 @@
       <c r="G4" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H4" t="str">
-        <f>VLOOKUP($A4,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="J4" t="str">
-        <f>VLOOKUP($A4,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5">
@@ -3561,16 +2122,14 @@
       <c r="G5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H5" t="str">
-        <f>VLOOKUP($A5,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="J5" t="str">
-        <f>VLOOKUP($A5,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
+      <c r="H5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5">
@@ -3595,16 +2154,14 @@
       <c r="G6" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H6" t="str">
-        <f>VLOOKUP($A6,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="J6" t="str">
-        <f>VLOOKUP($A6,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
+      <c r="H6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5">
@@ -3629,16 +2186,14 @@
       <c r="G7" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H7" t="str">
-        <f>VLOOKUP($A7,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J7" t="str">
-        <f>VLOOKUP($A7,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
+      <c r="H7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5">
@@ -3663,16 +2218,14 @@
       <c r="G8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H8" t="str">
-        <f>VLOOKUP($A8,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="J8" t="str">
-        <f>VLOOKUP($A8,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Ghana</v>
+      <c r="H8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5">
@@ -3697,16 +2250,14 @@
       <c r="G9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H9" t="str">
-        <f>VLOOKUP($A9,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="J9" t="str">
-        <f>VLOOKUP($A9,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Gambia</v>
+      <c r="H9" t="s">
+        <v>439</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.5">
@@ -3731,16 +2282,14 @@
       <c r="G10" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H10" t="str">
-        <f>VLOOKUP($A10,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="J10" t="str">
-        <f>VLOOKUP($A10,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Namibia</v>
+      <c r="H10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5">
@@ -3765,16 +2314,14 @@
       <c r="G11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H11" t="str">
-        <f>VLOOKUP($A11,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="J11" t="str">
-        <f>VLOOKUP($A11,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Namibia</v>
+      <c r="H11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.5">
@@ -3799,16 +2346,14 @@
       <c r="G12" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H12" t="str">
-        <f>VLOOKUP($A12,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="J12" t="str">
-        <f>VLOOKUP($A12,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Namibia</v>
+      <c r="H12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5">
@@ -3831,16 +2376,14 @@
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="str">
-        <f>VLOOKUP($A13,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="J13" t="str">
-        <f>VLOOKUP($A13,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H13" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5">
@@ -3863,16 +2406,14 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="str">
-        <f>VLOOKUP($A14,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="J14" t="str">
-        <f>VLOOKUP($A14,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H14" t="s">
+        <v>439</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5">
@@ -3895,16 +2436,14 @@
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="str">
-        <f>VLOOKUP($A15,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="J15" t="str">
-        <f>VLOOKUP($A15,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H15" t="s">
+        <v>439</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.5">
@@ -3927,16 +2466,14 @@
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H16" t="str">
-        <f>VLOOKUP($A16,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="J16" t="str">
-        <f>VLOOKUP($A16,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H16" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J16" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.5">
@@ -3961,16 +2498,14 @@
       <c r="G17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H17" t="str">
-        <f>VLOOKUP($A17,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="J17" t="str">
-        <f>VLOOKUP($A17,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J17" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="13.5">
@@ -3995,16 +2530,14 @@
       <c r="G18" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H18" t="str">
-        <f>VLOOKUP($A18,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="J18" t="str">
-        <f>VLOOKUP($A18,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J18" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.5">
@@ -4029,16 +2562,14 @@
       <c r="G19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H19" t="str">
-        <f>VLOOKUP($A19,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="J19" t="str">
-        <f>VLOOKUP($A19,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H19" t="s">
+        <v>439</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5">
@@ -4061,16 +2592,14 @@
       <c r="G20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H20" t="str">
-        <f>VLOOKUP($A20,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="J20" t="str">
-        <f>VLOOKUP($A20,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H20" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.5">
@@ -4093,16 +2622,14 @@
       <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H21" t="str">
-        <f>VLOOKUP($A21,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="J21" t="str">
-        <f>VLOOKUP($A21,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H21" t="s">
+        <v>439</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J21" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.5">
@@ -4125,16 +2652,14 @@
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="str">
-        <f>VLOOKUP($A22,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="J22" t="str">
-        <f>VLOOKUP($A22,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nigeria</v>
+      <c r="H22" t="s">
+        <v>439</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J22" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.5">
@@ -4159,16 +2684,14 @@
       <c r="G23" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H23" t="str">
-        <f>VLOOKUP($A23,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="J23" t="str">
-        <f>VLOOKUP($A23,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H23" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.5">
@@ -4193,16 +2716,14 @@
       <c r="G24" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H24" t="str">
-        <f>VLOOKUP($A24,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="J24" t="str">
-        <f>VLOOKUP($A24,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H24" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J24" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.5">
@@ -4227,16 +2748,14 @@
       <c r="G25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H25" t="str">
-        <f>VLOOKUP($A25,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="J25" t="str">
-        <f>VLOOKUP($A25,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H25" t="s">
+        <v>439</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J25" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.5">
@@ -4261,16 +2780,14 @@
       <c r="G26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H26" t="str">
-        <f>VLOOKUP($A26,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="J26" t="str">
-        <f>VLOOKUP($A26,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H26" t="s">
+        <v>439</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J26" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.5">
@@ -4295,16 +2812,14 @@
       <c r="G27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H27" t="str">
-        <f>VLOOKUP($A27,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="J27" t="str">
-        <f>VLOOKUP($A27,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H27" t="s">
+        <v>439</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J27" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5">
@@ -4329,16 +2844,14 @@
       <c r="G28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H28" t="str">
-        <f>VLOOKUP($A28,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="J28" t="str">
-        <f>VLOOKUP($A28,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J28" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.5">
@@ -4363,16 +2876,14 @@
       <c r="G29" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H29" t="str">
-        <f>VLOOKUP($A29,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="J29" t="str">
-        <f>VLOOKUP($A29,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H29" t="s">
+        <v>439</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J29" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5">
@@ -4397,16 +2908,14 @@
       <c r="G30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H30" t="str">
-        <f>VLOOKUP($A30,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="J30" t="str">
-        <f>VLOOKUP($A30,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H30" t="s">
+        <v>439</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J30" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.5">
@@ -4431,16 +2940,14 @@
       <c r="G31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H31" t="str">
-        <f>VLOOKUP($A31,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="J31" t="str">
-        <f>VLOOKUP($A31,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H31" t="s">
+        <v>439</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J31" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5">
@@ -4465,16 +2972,14 @@
       <c r="G32" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H32" t="str">
-        <f>VLOOKUP($A32,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="J32" t="str">
-        <f>VLOOKUP($A32,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H32" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J32" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13.5">
@@ -4499,16 +3004,14 @@
       <c r="G33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H33" t="str">
-        <f>VLOOKUP($A33,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="J33" t="str">
-        <f>VLOOKUP($A33,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H33" t="s">
+        <v>439</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="J33" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.5">
@@ -4533,16 +3036,14 @@
       <c r="G34" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H34" t="str">
-        <f>VLOOKUP($A34,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="J34" t="str">
-        <f>VLOOKUP($A34,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>South Africa</v>
+      <c r="H34" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.5">
@@ -4567,16 +3068,14 @@
       <c r="G35" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H35" t="str">
-        <f>VLOOKUP($A35,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="J35" t="str">
-        <f>VLOOKUP($A35,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nicaragua</v>
+      <c r="H35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5">
@@ -4597,16 +3096,14 @@
       <c r="G36" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H36" t="str">
-        <f>VLOOKUP($A36,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" t="str">
-        <f>VLOOKUP($A36,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nicaragua</v>
+      <c r="H36" t="s">
+        <v>459</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.5">
@@ -4631,16 +3128,14 @@
       <c r="G37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H37" t="str">
-        <f>VLOOKUP($A37,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="J37" t="str">
-        <f>VLOOKUP($A37,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nicaragua</v>
+      <c r="H37" t="s">
+        <v>459</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.5">
@@ -4665,16 +3160,14 @@
       <c r="G38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H38" t="str">
-        <f>VLOOKUP($A38,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="J38" t="str">
-        <f>VLOOKUP($A38,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Nicaragua</v>
+      <c r="H38" t="s">
+        <v>459</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.5">
@@ -4699,16 +3192,14 @@
       <c r="G39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H39" t="str">
-        <f>VLOOKUP($A39,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="J39" t="str">
-        <f>VLOOKUP($A39,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Dominican Republic</v>
+      <c r="H39" t="s">
+        <v>452</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.5">
@@ -4733,16 +3224,14 @@
       <c r="G40" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H40" t="str">
-        <f>VLOOKUP($A40,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="J40" t="str">
-        <f>VLOOKUP($A40,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Dominican Republic</v>
+      <c r="H40" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.5">
@@ -4767,16 +3256,14 @@
       <c r="G41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP($A41,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="J41" t="str">
-        <f>VLOOKUP($A41,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Dominican Republic</v>
+      <c r="H41" t="s">
+        <v>452</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.5">
@@ -4801,16 +3288,14 @@
       <c r="G42" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP($A42,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="J42" t="str">
-        <f>VLOOKUP($A42,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Dominican Republic</v>
+      <c r="H42" t="s">
+        <v>452</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.5">
@@ -4835,16 +3320,14 @@
       <c r="G43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H43" t="str">
-        <f>VLOOKUP($A43,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="J43" t="str">
-        <f>VLOOKUP($A43,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Dominican Republic</v>
+      <c r="H43" t="s">
+        <v>452</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.5">
@@ -4869,16 +3352,14 @@
       <c r="G44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H44" t="str">
-        <f>VLOOKUP($A44,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="J44" t="str">
-        <f>VLOOKUP($A44,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Dominican Republic</v>
+      <c r="H44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.5">
@@ -4903,16 +3384,14 @@
       <c r="G45" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H45" t="str">
-        <f>VLOOKUP($A45,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="J45" t="str">
-        <f>VLOOKUP($A45,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Liberia</v>
+      <c r="H45" t="s">
+        <v>439</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.5">
@@ -4937,16 +3416,14 @@
       <c r="G46" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H46" t="str">
-        <f>VLOOKUP($A46,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="J46" t="str">
-        <f>VLOOKUP($A46,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Liberia</v>
+      <c r="H46" t="s">
+        <v>439</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5">
@@ -4971,16 +3448,14 @@
       <c r="G47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H47" t="str">
-        <f>VLOOKUP($A47,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="J47" t="str">
-        <f>VLOOKUP($A47,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Madagascar</v>
+      <c r="H47" t="s">
+        <v>437</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J47" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.5">
@@ -5005,16 +3480,14 @@
       <c r="G48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H48" t="str">
-        <f>VLOOKUP($A48,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="J48" t="str">
-        <f>VLOOKUP($A48,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Madagascar</v>
+      <c r="H48" t="s">
+        <v>437</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.5">
@@ -5039,16 +3512,14 @@
       <c r="G49" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H49" t="str">
-        <f>VLOOKUP($A49,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="J49" t="str">
-        <f>VLOOKUP($A49,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Malawi</v>
+      <c r="H49" t="s">
+        <v>437</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.5">
@@ -5073,16 +3544,14 @@
       <c r="G50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H50" t="str">
-        <f>VLOOKUP($A50,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="J50" t="str">
-        <f>VLOOKUP($A50,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Malawi</v>
+      <c r="H50" t="s">
+        <v>437</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.5">
@@ -5107,16 +3576,14 @@
       <c r="G51" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H51" t="str">
-        <f>VLOOKUP($A51,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="J51" t="str">
-        <f>VLOOKUP($A51,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Malawi</v>
+      <c r="H51" t="s">
+        <v>437</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5">
@@ -5141,16 +3608,14 @@
       <c r="G52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H52" t="str">
-        <f>VLOOKUP($A52,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="J52" t="str">
-        <f>VLOOKUP($A52,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Malawi</v>
+      <c r="H52" t="s">
+        <v>437</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5">
@@ -5175,16 +3640,14 @@
       <c r="G53" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H53" t="str">
-        <f>VLOOKUP($A53,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="J53" t="str">
-        <f>VLOOKUP($A53,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mauritius</v>
+      <c r="H53" t="s">
+        <v>437</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J53" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.5">
@@ -5209,16 +3672,14 @@
       <c r="G54" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H54" t="str">
-        <f>VLOOKUP($A54,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="J54" t="str">
-        <f>VLOOKUP($A54,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mauritius</v>
+      <c r="H54" t="s">
+        <v>437</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J54" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5">
@@ -5243,16 +3704,14 @@
       <c r="G55" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H55" t="str">
-        <f>VLOOKUP($A55,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="J55" t="str">
-        <f>VLOOKUP($A55,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mauritius</v>
+      <c r="H55" t="s">
+        <v>437</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.5">
@@ -5277,16 +3736,14 @@
       <c r="G56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H56" t="str">
-        <f>VLOOKUP($A56,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J56" t="str">
-        <f>VLOOKUP($A56,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mauritius</v>
+      <c r="H56" t="s">
+        <v>437</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5">
@@ -5311,16 +3768,14 @@
       <c r="G57" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H57" t="str">
-        <f>VLOOKUP($A57,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="J57" t="str">
-        <f>VLOOKUP($A57,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mauritius</v>
+      <c r="H57" t="s">
+        <v>437</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J57" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5">
@@ -5345,16 +3800,14 @@
       <c r="G58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H58" t="str">
-        <f>VLOOKUP($A58,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="J58" t="str">
-        <f>VLOOKUP($A58,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mozambique</v>
+      <c r="H58" t="s">
+        <v>437</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J58" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13.5">
@@ -5379,16 +3832,14 @@
       <c r="G59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H59" t="str">
-        <f>VLOOKUP($A59,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="J59" t="str">
-        <f>VLOOKUP($A59,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mozambique</v>
+      <c r="H59" t="s">
+        <v>437</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J59" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.5">
@@ -5413,16 +3864,14 @@
       <c r="G60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H60" t="str">
-        <f>VLOOKUP($A60,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="J60" t="str">
-        <f>VLOOKUP($A60,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Mozambique</v>
+      <c r="H60" t="s">
+        <v>437</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J60" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.5">
@@ -5447,16 +3896,14 @@
       <c r="G61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H61" t="str">
-        <f>VLOOKUP($A61,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="J61" t="str">
-        <f>VLOOKUP($A61,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Myanmar (Burma)</v>
+      <c r="H61" t="s">
+        <v>455</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J61" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13.5">
@@ -5481,16 +3928,14 @@
       <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H62" t="str">
-        <f>VLOOKUP($A62,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="J62" t="str">
-        <f>VLOOKUP($A62,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Myanmar (Burma)</v>
+      <c r="H62" t="s">
+        <v>455</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.5">
@@ -5515,16 +3960,14 @@
       <c r="G63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H63" t="str">
-        <f>VLOOKUP($A63,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="J63" t="str">
-        <f>VLOOKUP($A63,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Myanmar (Burma)</v>
+      <c r="H63" t="s">
+        <v>455</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J63" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.5">
@@ -5549,16 +3992,14 @@
       <c r="G64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H64" t="str">
-        <f>VLOOKUP($A64,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="J64" t="str">
-        <f>VLOOKUP($A64,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Myanmar (Burma)</v>
+      <c r="H64" t="s">
+        <v>455</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J64" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13.5">
@@ -5581,16 +4022,14 @@
       <c r="G65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H65" t="str">
-        <f>VLOOKUP($A65,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="J65" t="str">
-        <f>VLOOKUP($A65,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H65" t="s">
+        <v>467</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J65" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.5">
@@ -5613,16 +4052,14 @@
       <c r="G66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H66" t="str">
-        <f>VLOOKUP($A66,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="J66" t="str">
-        <f>VLOOKUP($A66,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H66" t="s">
+        <v>467</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="J66" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.5">
@@ -5645,16 +4082,14 @@
       <c r="G67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H67" t="str">
-        <f>VLOOKUP($A67,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="J67" t="str">
-        <f>VLOOKUP($A67,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H67" t="s">
+        <v>467</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J67" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.5">
@@ -5677,16 +4112,14 @@
       <c r="G68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H68" t="str">
-        <f>VLOOKUP($A68,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="J68" t="str">
-        <f>VLOOKUP($A68,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H68" t="s">
+        <v>467</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J68" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.5">
@@ -5709,16 +4142,14 @@
       <c r="G69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H69" t="str">
-        <f>VLOOKUP($A69,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="J69" t="str">
-        <f>VLOOKUP($A69,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H69" t="s">
+        <v>467</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J69" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.5">
@@ -5741,16 +4172,14 @@
       <c r="G70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H70" t="str">
-        <f>VLOOKUP($A70,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="J70" t="str">
-        <f>VLOOKUP($A70,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J70" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.5">
@@ -5775,16 +4204,14 @@
       <c r="G71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H71" t="str">
-        <f>VLOOKUP($A71,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="J71" t="str">
-        <f>VLOOKUP($A71,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H71" t="s">
+        <v>467</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J71" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13.5">
@@ -5809,16 +4236,14 @@
       <c r="G72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H72" t="str">
-        <f>VLOOKUP($A72,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="J72" t="str">
-        <f>VLOOKUP($A72,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H72" t="s">
+        <v>467</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J72" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.5">
@@ -5843,16 +4268,14 @@
       <c r="G73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H73" t="str">
-        <f>VLOOKUP($A73,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="J73" t="str">
-        <f>VLOOKUP($A73,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H73" t="s">
+        <v>467</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J73" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13.5">
@@ -5877,16 +4300,14 @@
       <c r="G74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H74" t="str">
-        <f>VLOOKUP($A74,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="J74" t="str">
-        <f>VLOOKUP($A74,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H74" t="s">
+        <v>467</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="J74" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13.5">
@@ -5911,16 +4332,14 @@
       <c r="G75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H75" t="str">
-        <f>VLOOKUP($A75,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="J75" t="str">
-        <f>VLOOKUP($A75,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H75" t="s">
+        <v>467</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J75" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13.5">
@@ -5945,16 +4364,14 @@
       <c r="G76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H76" t="str">
-        <f>VLOOKUP($A76,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="J76" t="str">
-        <f>VLOOKUP($A76,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H76" t="s">
+        <v>467</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J76" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.5">
@@ -5979,16 +4396,14 @@
       <c r="G77" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H77" t="str">
-        <f>VLOOKUP($A77,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="J77" t="str">
-        <f>VLOOKUP($A77,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H77" t="s">
+        <v>467</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J77" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13.5">
@@ -6013,16 +4428,14 @@
       <c r="G78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H78" t="str">
-        <f>VLOOKUP($A78,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="J78" t="str">
-        <f>VLOOKUP($A78,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H78" t="s">
+        <v>467</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J78" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13.5">
@@ -6047,16 +4460,14 @@
       <c r="G79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H79" t="str">
-        <f>VLOOKUP($A79,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="J79" t="str">
-        <f>VLOOKUP($A79,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H79" t="s">
+        <v>467</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J79" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.5">
@@ -6081,16 +4492,14 @@
       <c r="G80" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H80" t="str">
-        <f>VLOOKUP($A80,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="J80" t="str">
-        <f>VLOOKUP($A80,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H80" t="s">
+        <v>467</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J80" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13.5">
@@ -6115,16 +4524,14 @@
       <c r="G81" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H81" t="str">
-        <f>VLOOKUP($A81,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="J81" t="str">
-        <f>VLOOKUP($A81,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H81" t="s">
+        <v>467</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J81" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5">
@@ -6149,16 +4556,14 @@
       <c r="G82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H82" t="str">
-        <f>VLOOKUP($A82,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="J82" t="str">
-        <f>VLOOKUP($A82,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H82" t="s">
+        <v>467</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J82" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13.5">
@@ -6183,16 +4588,14 @@
       <c r="G83" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H83" t="str">
-        <f>VLOOKUP($A83,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="J83" t="str">
-        <f>VLOOKUP($A83,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H83" t="s">
+        <v>467</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J83" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5">
@@ -6217,16 +4620,14 @@
       <c r="G84" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H84" t="str">
-        <f>VLOOKUP($A84,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="J84" t="str">
-        <f>VLOOKUP($A84,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Vietnam</v>
+      <c r="H84" t="s">
+        <v>467</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J84" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.5">
@@ -6249,16 +4650,14 @@
       <c r="G85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H85" t="str">
-        <f>VLOOKUP($A85,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="J85" t="str">
-        <f>VLOOKUP($A85,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Botswana</v>
+      <c r="H85" t="s">
+        <v>437</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J85" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.5">
@@ -6283,16 +4682,14 @@
       <c r="G86" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H86" t="str">
-        <f>VLOOKUP($A86,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="J86" t="str">
-        <f>VLOOKUP($A86,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Botswana</v>
+      <c r="H86" t="s">
+        <v>437</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J86" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13.5">
@@ -6317,16 +4714,14 @@
       <c r="G87" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H87" t="str">
-        <f>VLOOKUP($A87,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="J87" t="str">
-        <f>VLOOKUP($A87,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Botswana</v>
+      <c r="H87" t="s">
+        <v>437</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J87" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13.5">
@@ -6351,16 +4746,14 @@
       <c r="G88" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H88" t="str">
-        <f>VLOOKUP($A88,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I88" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="J88" t="str">
-        <f>VLOOKUP($A88,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Somalia</v>
+      <c r="H88" t="s">
+        <v>439</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J88" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5">
@@ -6385,16 +4778,14 @@
       <c r="G89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H89" t="str">
-        <f>VLOOKUP($A89,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="J89" t="str">
-        <f>VLOOKUP($A89,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Somalia</v>
+      <c r="H89" t="s">
+        <v>439</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J89" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13.5">
@@ -6419,16 +4810,14 @@
       <c r="G90" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H90" t="str">
-        <f>VLOOKUP($A90,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="J90" t="str">
-        <f>VLOOKUP($A90,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Somalia</v>
+      <c r="H90" t="s">
+        <v>439</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13.5">
@@ -6453,16 +4842,14 @@
       <c r="G91" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H91" t="str">
-        <f>VLOOKUP($A91,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="J91" t="str">
-        <f>VLOOKUP($A91,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Somalia</v>
+      <c r="H91" t="s">
+        <v>439</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J91" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.5">
@@ -6487,16 +4874,14 @@
       <c r="G92" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H92" t="str">
-        <f>VLOOKUP($A92,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="J92" t="str">
-        <f>VLOOKUP($A92,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Somalia</v>
+      <c r="H92" t="s">
+        <v>439</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J92" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13.5">
@@ -6521,16 +4906,14 @@
       <c r="G93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H93" t="str">
-        <f>VLOOKUP($A93,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="J93" t="str">
-        <f>VLOOKUP($A93,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Sudan</v>
+      <c r="H93" t="s">
+        <v>439</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J93" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13.5">
@@ -6553,16 +4936,14 @@
       <c r="G94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H94" t="str">
-        <f>VLOOKUP($A94,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="J94" t="str">
-        <f>VLOOKUP($A94,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H94" t="s">
+        <v>457</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J94" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13.5">
@@ -6587,16 +4968,14 @@
       <c r="G95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H95" t="str">
-        <f>VLOOKUP($A95,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="J95" t="str">
-        <f>VLOOKUP($A95,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H95" t="s">
+        <v>457</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="J95" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13.5">
@@ -6621,16 +5000,14 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H96" t="str">
-        <f>VLOOKUP($A96,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="J96" t="str">
-        <f>VLOOKUP($A96,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H96" t="s">
+        <v>457</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="J96" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13.5">
@@ -6655,16 +5032,14 @@
       <c r="G97" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H97" t="str">
-        <f>VLOOKUP($A97,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="J97" t="str">
-        <f>VLOOKUP($A97,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H97" t="s">
+        <v>457</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="J97" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13.5">
@@ -6689,16 +5064,14 @@
       <c r="G98" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H98" t="str">
-        <f>VLOOKUP($A98,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="J98" t="str">
-        <f>VLOOKUP($A98,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H98" t="s">
+        <v>457</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J98" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="27">
@@ -6723,16 +5096,14 @@
       <c r="G99" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H99" t="str">
-        <f>VLOOKUP($A99,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="J99" t="str">
-        <f>VLOOKUP($A99,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H99" t="s">
+        <v>457</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J99" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13.5">
@@ -6757,16 +5128,14 @@
       <c r="G100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H100" t="str">
-        <f>VLOOKUP($A100,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="J100" t="str">
-        <f>VLOOKUP($A100,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H100" t="s">
+        <v>457</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="J100" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13.5">
@@ -6791,16 +5160,14 @@
       <c r="G101" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H101" t="str">
-        <f>VLOOKUP($A101,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="J101" t="str">
-        <f>VLOOKUP($A101,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H101" t="s">
+        <v>457</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J101" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13.5">
@@ -6825,16 +5192,14 @@
       <c r="G102" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H102" t="str">
-        <f>VLOOKUP($A102,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I102" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="J102" t="str">
-        <f>VLOOKUP($A102,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H102" t="s">
+        <v>457</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J102" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13.5">
@@ -6859,16 +5224,14 @@
       <c r="G103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H103" t="str">
-        <f>VLOOKUP($A103,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="J103" t="str">
-        <f>VLOOKUP($A103,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H103" t="s">
+        <v>457</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="J103" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13.5">
@@ -6893,16 +5256,14 @@
       <c r="G104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H104" t="str">
-        <f>VLOOKUP($A104,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I104" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="J104" t="str">
-        <f>VLOOKUP($A104,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H104" t="s">
+        <v>457</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J104" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13.5">
@@ -6927,16 +5288,14 @@
       <c r="G105" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H105" t="str">
-        <f>VLOOKUP($A105,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="I105" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="J105" t="str">
-        <f>VLOOKUP($A105,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Angola</v>
+      <c r="H105" t="s">
+        <v>457</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J105" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13.5">
@@ -6961,16 +5320,14 @@
       <c r="G106" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H106" t="str">
-        <f>VLOOKUP($A106,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I106" s="17" t="s">
+      <c r="H106" t="s">
+        <v>439</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J106" t="s">
         <v>445</v>
-      </c>
-      <c r="J106" t="str">
-        <f>VLOOKUP($A106,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Ethiopia</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13.5">
@@ -6995,16 +5352,14 @@
       <c r="G107" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H107" t="str">
-        <f>VLOOKUP($A107,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I107" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="J107" t="str">
-        <f>VLOOKUP($A107,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Ethiopia</v>
+      <c r="H107" t="s">
+        <v>439</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J107" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13.5">
@@ -7029,16 +5384,14 @@
       <c r="G108" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H108" t="str">
-        <f>VLOOKUP($A108,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I108" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="J108" t="str">
-        <f>VLOOKUP($A108,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Ethiopia</v>
+      <c r="H108" t="s">
+        <v>439</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J108" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13.5">
@@ -7063,16 +5416,14 @@
       <c r="G109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H109" t="str">
-        <f>VLOOKUP($A109,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I109" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="J109" t="str">
-        <f>VLOOKUP($A109,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Uganda</v>
+      <c r="H109" t="s">
+        <v>439</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J109" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13.5">
@@ -7097,16 +5448,14 @@
       <c r="G110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H110" t="str">
-        <f>VLOOKUP($A110,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I110" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="J110" t="str">
-        <f>VLOOKUP($A110,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Uganda</v>
+      <c r="H110" t="s">
+        <v>439</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J110" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13.5">
@@ -7131,16 +5480,14 @@
       <c r="G111" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H111" t="str">
-        <f>VLOOKUP($A111,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I111" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="J111" t="str">
-        <f>VLOOKUP($A111,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Uganda</v>
+      <c r="H111" t="s">
+        <v>439</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J111" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13.5">
@@ -7165,16 +5512,14 @@
       <c r="G112" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H112" t="str">
-        <f>VLOOKUP($A112,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I112" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="J112" t="str">
-        <f>VLOOKUP($A112,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Zambia</v>
+      <c r="H112" t="s">
+        <v>437</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J112" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="13.5">
@@ -7199,16 +5544,14 @@
       <c r="G113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H113" t="str">
-        <f>VLOOKUP($A113,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I113" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="J113" t="str">
-        <f>VLOOKUP($A113,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Zambia</v>
+      <c r="H113" t="s">
+        <v>437</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J113" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.5">
@@ -7233,16 +5576,14 @@
       <c r="G114" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H114" t="str">
-        <f>VLOOKUP($A114,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I114" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="J114" t="str">
-        <f>VLOOKUP($A114,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Zambia</v>
+      <c r="H114" t="s">
+        <v>437</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J114" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5">
@@ -7267,16 +5608,14 @@
       <c r="G115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H115" t="str">
-        <f>VLOOKUP($A115,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I115" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="J115" t="str">
-        <f>VLOOKUP($A115,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Zambia</v>
+      <c r="H115" t="s">
+        <v>437</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J115" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13.5">
@@ -7301,16 +5640,14 @@
       <c r="G116" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H116" t="str">
-        <f>VLOOKUP($A116,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I116" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="J116" t="str">
-        <f>VLOOKUP($A116,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Djibouti</v>
+      <c r="H116" t="s">
+        <v>439</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J116" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13.5">
@@ -7335,16 +5672,14 @@
       <c r="G117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H117" t="str">
-        <f>VLOOKUP($A117,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I117" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="J117" t="str">
-        <f>VLOOKUP($A117,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Djibouti</v>
+      <c r="H117" t="s">
+        <v>439</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J117" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5">
@@ -7367,16 +5702,14 @@
       <c r="G118" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H118" t="str">
-        <f>VLOOKUP($A118,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="I118" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="J118" t="str">
-        <f>VLOOKUP($A118,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Zimbabwe</v>
+      <c r="H118" t="s">
+        <v>437</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J118" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.5">
@@ -7399,16 +5732,14 @@
       <c r="G119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H119" t="str">
-        <f>VLOOKUP($A119,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I119" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="J119" t="str">
-        <f>VLOOKUP($A119,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Kenya</v>
+      <c r="H119" t="s">
+        <v>439</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="J119" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5">
@@ -7433,16 +5764,14 @@
       <c r="G120" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H120" t="str">
-        <f>VLOOKUP($A120,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="J120" t="str">
-        <f>VLOOKUP($A120,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Kenya</v>
+      <c r="H120" t="s">
+        <v>439</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J120" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="13.5">
@@ -7467,16 +5796,14 @@
       <c r="G121" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H121" t="str">
-        <f>VLOOKUP($A121,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I121" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="J121" t="str">
-        <f>VLOOKUP($A121,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Kenya</v>
+      <c r="H121" t="s">
+        <v>439</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J121" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="13.5">
@@ -7501,16 +5828,14 @@
       <c r="G122" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H122" t="str">
-        <f>VLOOKUP($A122,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I122" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="J122" t="str">
-        <f>VLOOKUP($A122,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Colombia</v>
+      <c r="H122" t="s">
+        <v>446</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J122" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5">
@@ -7535,16 +5860,14 @@
       <c r="G123" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H123" t="str">
-        <f>VLOOKUP($A123,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I123" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="J123" t="str">
-        <f>VLOOKUP($A123,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Colombia</v>
+      <c r="H123" t="s">
+        <v>446</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="J123" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.5">
@@ -7569,16 +5892,14 @@
       <c r="G124" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H124" t="str">
-        <f>VLOOKUP($A124,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I124" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="J124" t="str">
-        <f>VLOOKUP($A124,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Colombia</v>
+      <c r="H124" t="s">
+        <v>446</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="J124" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5">
@@ -7603,16 +5924,14 @@
       <c r="G125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H125" t="str">
-        <f>VLOOKUP($A125,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I125" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="J125" t="str">
-        <f>VLOOKUP($A125,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Colombia</v>
+      <c r="H125" t="s">
+        <v>446</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J125" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="13.5">
@@ -7637,16 +5956,14 @@
       <c r="G126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H126" t="str">
-        <f>VLOOKUP($A126,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I126" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="J126" t="str">
-        <f>VLOOKUP($A126,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Colombia</v>
+      <c r="H126" t="s">
+        <v>446</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J126" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.5">
@@ -7671,16 +5988,14 @@
       <c r="G127" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H127" t="str">
-        <f>VLOOKUP($A127,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I127" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="J127" t="str">
-        <f>VLOOKUP($A127,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Democratic Republic of the Congo</v>
+      <c r="H127" t="s">
+        <v>439</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J127" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5">
@@ -7703,16 +6018,14 @@
       <c r="G128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H128" t="str">
-        <f>VLOOKUP($A128,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I128" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="J128" t="str">
-        <f>VLOOKUP($A128,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Democratic Republic of the Congo</v>
+      <c r="H128" t="s">
+        <v>439</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="J128" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="13.5">
@@ -7737,16 +6050,14 @@
       <c r="G129" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H129" t="str">
-        <f>VLOOKUP($A129,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I129" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="J129" t="str">
-        <f>VLOOKUP($A129,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Tanganyika)</v>
+      <c r="H129" t="s">
+        <v>439</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="J129" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5">
@@ -7771,16 +6082,14 @@
       <c r="G130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H130" t="str">
-        <f>VLOOKUP($A130,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I130" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="J130" t="str">
-        <f>VLOOKUP($A130,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Tanganyika)</v>
+      <c r="H130" t="s">
+        <v>439</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="J130" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="13.5">
@@ -7805,16 +6114,14 @@
       <c r="G131" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H131" t="str">
-        <f>VLOOKUP($A131,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I131" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="J131" t="str">
-        <f>VLOOKUP($A131,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Zanzibar)</v>
+      <c r="H131" t="s">
+        <v>439</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J131" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="13.5">
@@ -7839,16 +6146,14 @@
       <c r="G132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H132" t="str">
-        <f>VLOOKUP($A132,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I132" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="J132" t="str">
-        <f>VLOOKUP($A132,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Zanzibar)</v>
+      <c r="H132" t="s">
+        <v>439</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="J132" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5">
@@ -7873,16 +6178,14 @@
       <c r="G133" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H133" t="str">
-        <f>VLOOKUP($A133,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I133" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J133" t="str">
-        <f>VLOOKUP($A133,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Zanzibar)</v>
+      <c r="H133" t="s">
+        <v>439</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="J133" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="13.5">
@@ -7907,16 +6210,14 @@
       <c r="G134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H134" t="str">
-        <f>VLOOKUP($A134,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I134" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="J134" t="str">
-        <f>VLOOKUP($A134,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Tanganyika)</v>
+      <c r="H134" t="s">
+        <v>439</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="J134" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="13.5">
@@ -7941,16 +6242,14 @@
       <c r="G135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H135" t="str">
-        <f>VLOOKUP($A135,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="I135" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="J135" t="str">
-        <f>VLOOKUP($A135,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Tanzania (Tanganyika)</v>
+      <c r="H135" t="s">
+        <v>439</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="J135" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="13.5">
@@ -7975,16 +6274,14 @@
       <c r="G136" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H136" t="str">
-        <f>VLOOKUP($A136,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I136" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="J136" t="str">
-        <f>VLOOKUP($A136,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Panama</v>
+      <c r="H136" t="s">
+        <v>460</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="J136" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="13.5">
@@ -8009,16 +6306,14 @@
       <c r="G137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H137" t="str">
-        <f>VLOOKUP($A137,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I137" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="J137" t="str">
-        <f>VLOOKUP($A137,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Panama</v>
+      <c r="H137" t="s">
+        <v>460</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J137" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="13.5">
@@ -8043,16 +6338,14 @@
       <c r="G138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H138" t="str">
-        <f>VLOOKUP($A138,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I138" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="J138" t="str">
-        <f>VLOOKUP($A138,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Panama</v>
+      <c r="H138" t="s">
+        <v>460</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J138" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="13.5">
@@ -8077,16 +6370,14 @@
       <c r="G139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H139" t="str">
-        <f>VLOOKUP($A139,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I139" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="J139" t="str">
-        <f>VLOOKUP($A139,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Panama</v>
+      <c r="H139" t="s">
+        <v>460</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="J139" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="13.5">
@@ -8111,16 +6402,14 @@
       <c r="G140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H140" t="str">
-        <f>VLOOKUP($A140,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I140" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="J140" t="str">
-        <f>VLOOKUP($A140,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Panama</v>
+      <c r="H140" t="s">
+        <v>460</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="J140" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="13.5">
@@ -8145,559 +6434,14 @@
       <c r="G141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H141" t="str">
-        <f>VLOOKUP($A141,Sheet1!$A$1:$E$31, 3, FALSE)</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="I141" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="J141" t="str">
-        <f>VLOOKUP($A141,Sheet1!$A$1:$E$31, 5, FALSE)</f>
-        <v>Panama</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED152F1-1B29-4C80-AB4C-8FEA2A933923}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="13"/>
-    <col min="3" max="3" width="23.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27">
-      <c r="A1" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.5">
-      <c r="A2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="15" t="str" cm="1">
-        <f t="array" ref="C2">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A2) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B2), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>Claire Smedley &lt;csmedley@vonseidels.com&gt;; Chandré Arendse &lt;cbarendse@vonseidels.com&gt;; Pearlen Oliver &lt;poliver@vonseidels.com&gt;</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5">
-      <c r="A3" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="15" t="str" cm="1">
-        <f t="array" ref="C3">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A3) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B3), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5">
-      <c r="A4" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="15" t="str" cm="1">
-        <f t="array" ref="C4">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A4) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B4), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.5">
-      <c r="A5" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="15" t="str" cm="1">
-        <f t="array" ref="C5">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A5) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B5), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>CASTELLANOS &amp; Co. &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5">
-      <c r="A6" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="15" t="str" cm="1">
-        <f t="array" ref="C6">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A6) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B6), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="str" cm="1">
-        <f t="array" ref="E6">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A6) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B6), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Djibouti</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5">
-      <c r="A7" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="15" t="str" cm="1">
-        <f t="array" ref="C7">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A7) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B7), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>trademarks@castillo.com.do</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="str" cm="1">
-        <f t="array" ref="E7">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A7) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B7), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Dominican Republic</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.5">
-      <c r="A8" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="15" t="str" cm="1">
-        <f t="array" ref="C8">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A8) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B8), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="str" cm="1">
-        <f t="array" ref="E8">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A8) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B8), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Ethiopia</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.5">
-      <c r="A9" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9" s="15" t="str" cm="1">
-        <f t="array" ref="C9">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A9) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B9), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="str" cm="1">
-        <f t="array" ref="E9">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A9) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B9), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Ghana</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.5">
-      <c r="A10" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" s="15" t="str" cm="1">
-        <f t="array" ref="C10">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A10) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B10), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="str" cm="1">
-        <f t="array" ref="E10">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A10) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B10), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Gambia</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.5">
-      <c r="A11" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="15" t="str" cm="1">
-        <f t="array" ref="C11">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A11) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B11), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="str" cm="1">
-        <f t="array" ref="E11">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A11) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B11), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Kenya</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.5">
-      <c r="A12" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="15" t="str" cm="1">
-        <f t="array" ref="C12">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A12) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B12), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="str" cm="1">
-        <f t="array" ref="E12">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A12) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B12), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Liberia</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.5">
-      <c r="A13" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="15" t="str" cm="1">
-        <f t="array" ref="C13">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A13) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B13), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="str" cm="1">
-        <f t="array" ref="E13">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A13) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B13), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Madagascar</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27">
-      <c r="A14" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="15" t="str" cm="1">
-        <f t="array" ref="C14">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A14) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B14), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>Khin Myo Myo Aye &lt;khinmyomyoaye@tilleke.com&gt;; mm.docketing@tilleke.com</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="str" cm="1">
-        <f t="array" ref="E14">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A14) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B14), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Myanmar (Burma)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.5">
-      <c r="A15" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="15" t="str" cm="1">
-        <f t="array" ref="C15">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A15) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B15), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="str" cm="1">
-        <f t="array" ref="E15">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A15) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B15), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Mauritius</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.5">
-      <c r="A16" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="15" t="str" cm="1">
-        <f t="array" ref="C16">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A16) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B16), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="str" cm="1">
-        <f t="array" ref="E16">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A16) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B16), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Malawi</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.5">
-      <c r="A17" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="15" t="str" cm="1">
-        <f t="array" ref="C17">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A17) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B17), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="str" cm="1">
-        <f t="array" ref="E17">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A17) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B17), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Mozambique</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.5">
-      <c r="A18" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="15" t="str" cm="1">
-        <f t="array" ref="C18">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A18) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B18), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="str" cm="1">
-        <f t="array" ref="E18">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A18) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B18), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Namibia</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.5">
-      <c r="A19" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19" s="15" t="str" cm="1">
-        <f t="array" ref="C19">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A19) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B19), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="str" cm="1">
-        <f t="array" ref="E19">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A19) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B19), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Nigeria</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="15" t="str" cm="1">
-        <f t="array" ref="C20">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A20) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B20), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info guybendana.com.ni &lt;info@guybendana.com.ni&gt;; ipprosecution guybendana.com.ni &lt;ipprosecution@guybendana.com.ni&gt;; attorney guybendana.com.ni &lt;attorney@guybendana.com.ni&gt;</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="str" cm="1">
-        <f t="array" ref="E20">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A20) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B20), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Nicaragua</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5">
-      <c r="A21" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="15" t="str" cm="1">
-        <f t="array" ref="C21">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A21) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B21), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="str" cm="1">
-        <f t="array" ref="E21">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A21) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B21), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>OAPI (African Intellectual Property Organization)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="22.5">
-      <c r="A22" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="15" t="str" cm="1">
-        <f t="array" ref="C22">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A22) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B22), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>Castellanos &amp; CO &lt;castellanos@castellanosyco.co&gt;</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="str" cm="1">
-        <f t="array" ref="E22">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A22) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B22), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Panama</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5">
-      <c r="A23" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="15" t="str" cm="1">
-        <f t="array" ref="C23">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A23) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B23), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="str" cm="1">
-        <f t="array" ref="E23">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A23) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B23), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Sudan</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.5">
-      <c r="A24" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="15" t="str" cm="1">
-        <f t="array" ref="C24">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A24) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B24), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="str" cm="1">
-        <f t="array" ref="E24">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A24) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B24), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Somalia</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="13.5">
-      <c r="A25" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="15" t="str" cm="1">
-        <f t="array" ref="C25">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A25) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B25), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="str" cm="1">
-        <f t="array" ref="E25">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A25) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B25), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Tanzania (Tanganyika)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.5">
-      <c r="A26" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="15" t="str" cm="1">
-        <f t="array" ref="C26">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A26) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B26), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="str" cm="1">
-        <f t="array" ref="E26">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A26) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B26), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Uganda</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.5">
-      <c r="A27" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C27" s="15" t="str" cm="1">
-        <f t="array" ref="C27">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A27) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B27), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>Nguyen Thuy Hong' &lt;nt.hong@vision-associates.com&gt;; 'Nguyen Thi Thu Ha' &lt;ntt.ha1@vision-associates.com&gt;</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="str" cm="1">
-        <f t="array" ref="E27">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A27) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B27), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Vietnam</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.5">
-      <c r="A28" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="15" t="str" cm="1">
-        <f t="array" ref="C28">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A28) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B28), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="str" cm="1">
-        <f t="array" ref="E28">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A28) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B28), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>South Africa</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="13.5">
-      <c r="A29" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="15" t="str" cm="1">
-        <f t="array" ref="C29">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A29) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B29), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="str" cm="1">
-        <f t="array" ref="E29">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A29) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B29), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Zambia</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.5">
-      <c r="A30" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="15" t="str" cm="1">
-        <f t="array" ref="C30">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A30) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B30), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>info@ensafrica.com; rforster@ensafrica.com</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="str" cm="1">
-        <f t="array" ref="E30">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A30) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B30), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Zimbabwe</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="13.5">
-      <c r="A31" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="15" t="str" cm="1">
-        <f t="array" ref="C31">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A31) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B31), [1]Sheet1!$D$2:$D$497, "")</f>
-        <v>'Claire Smedley' &lt;csmedley@vonseidels.com&gt;; 'Chandré Arendse' &lt;cbarendse@vonseidels.com&gt;; poliver@vonseidels.com</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="str" cm="1">
-        <f t="array" ref="E31">_xlfn.XLOOKUP(1, ([1]Sheet1!$A$2:$A$497 = [1]Sheet2!A31) * ([1]Sheet1!$B$2:$B$497 = [1]Sheet2!B31), [1]Sheet1!$C$2:$C$497, "")</f>
-        <v>Tanzania (Zanzibar)</v>
+      <c r="H141" t="s">
+        <v>460</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J141" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
